--- a/ads.xlsx
+++ b/ads.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,42 +529,15 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>08 July 2022</t>
+          <t>12 July 2022</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-IDmDVX5.html</t>
+          <t>https://olx.kz/d/obyavlenie/sredneaziatskaya-suhoputnaya-cherepaha-IDcacJo.html</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Продам «Среднеазиатскую сухопутную черепаху» По кличке «Ниндзя» В возрасте 13-ти лет. В связи с переездом. Цена 6000 тенге.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>среднеазиатская черепаха</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>12 July 2022</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/sredneaziatskaya-suhoputnaya-cherepaha-IDcacJo.html</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Среднеазиатских сухопутных Черепашек размер С ДЕТСКУЮ ЛАДОШКУ ! Окрас панциря от Оливкового до Насыщенно Древесного! Фото реальные - БЕЗ ФОТОШОПА !!! Количество ограниченно- занесены в Красную книгу.
 Среди рептилий, пожалуй, это самый распространенный представитель, которого с удовольствием многие содержат в домашних условиях. Среднеазиатская сухопутная черепаха очень интересное животное, отличающееся своей медлительностью, нерасторопностью, но в тоже время, обладающая каким-то особым обаянием. Свое название среднеазиатская черепаха получила неслучайно, так как природной средой ее обитания являются многие территории Средней Азии – Казахстан, Иран, Афганистан, Пакистан, северо-западная часть Индии.
@@ -579,28 +552,28 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>12 July 2022</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/cherepaha-suhoputnaya-sredneaziatskaya-IDkAkve.html</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Молодые черепашки, размер около 10-13см в диаметре. 
 Есть всё необходимое для их содержания 
@@ -615,28 +588,28 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12 July 2022</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/nagrevatelnyy-mat-repti-zoo-v-zhivom-mire-na-tole-bi-IDk0ZUl.html</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Характеристика:
 Нагревательные маты, предназначенные для террариумов, отличаются чрезвычайно высокой эффективностью. 86% тепла, выделяемого ковриком, излучается вертикально, прямо в обогреваемый террариум. 
@@ -653,6 +626,33 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>13 July 2022</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/roga-saygaka-IDmFyPY.html</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Продаются рога сайгака сувенирный и лакированный, в очень хорошем состоянии.ееее</t>
+        </is>
+      </c>
+    </row>
     <row r="7" ht="40" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>степная черепаха</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/roga-saygaka-IDmFyPY.html</t>
+          <t>https://olx.kz/d/obyavlenie/stepnaya-cherepaha-IDmFCb6.html</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Продаются рога сайгака сувенирный и лакированный, в очень хорошем состоянии.ееее</t>
+          <t>Продам Степная черепаха. Цена-7000</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>степная черепаха</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/stepnaya-cherepaha-IDmFCb6.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDmwWxF.html</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>Продам Степная черепаха. Цена-7000</t>
+          <t>Продам красноухую черепаху с аквариумом, фильтром и домиком. Вопросы по телефону</t>
         </is>
       </c>
     </row>
@@ -715,22 +715,22 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>13 July 2022</t>
+          <t>14 July 2022</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDmwWxF.html</t>
+          <t>https://olx.kz/d/obyavlenie/vitiligo-pes-lechenie-IDmFIqT.html</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху с аквариумом, фильтром и домиком. Вопросы по телефону</t>
+          <t>Лечение по тибетской медицине,на натуральных составляющих ( экстракт из рога сайгака ,мясо рыбы.), хорошая жаркая погода ( желательно),принимать солнечную ванну,после принятия лекарства,предоплаты нет,до эффективного положительного результата,обращайтесь ,не пожалеете,фотки из сайтов.</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -752,12 +752,13 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/vitiligo-pes-lechenie-IDmFIqT.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-prodam-cherepahu-IDmacNw.html</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>Лечение по тибетской медицине,на натуральных составляющих ( экстракт из рога сайгака ,мясо рыбы.), хорошая жаркая погода ( желательно),принимать солнечную ванну,после принятия лекарства,предоплаты нет,до эффективного положительного результата,обращайтесь ,не пожалеете,фотки из сайтов.</t>
+          <t>Продам черепах. Большая 3000тг
+Средняя 4000тг. В еде не прихотливы. Едят траву, овощи, фрукты</t>
         </is>
       </c>
     </row>
@@ -779,13 +780,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-prodam-cherepahu-IDmacNw.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-morskuyu-krasnouhuyu-cherepahu-IDlE7tK.html</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Продам черепах. Большая 3000тг
-Средняя 4000тг. В еде не прихотливы. Едят траву, овощи, фрукты</t>
+          <t>Продам морскую черепаху. Маленькая, живет в аквариуме, питается спец замороженным кормом. Вообще неприхотливая. Отличный питомец,  не требующий больших затрат времени и денег на уход и содержание. Цена без аквариума.</t>
         </is>
       </c>
     </row>
@@ -807,37 +807,10 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-morskuyu-krasnouhuyu-cherepahu-IDlE7tK.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmbEy6.html</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Продам морскую черепаху. Маленькая, живет в аквариуме, питается спец замороженным кормом. Вообще неприхотливая. Отличный питомец,  не требующий больших затрат времени и денег на уход и содержание. Цена без аквариума.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="40" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>14 July 2022</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmbEy6.html</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Каждый из нас хоть однажды оказывался перед непростой дилеммой: заводить или нет домашнее животное. А если да, то — какое? Собаку, кошку, кролика или попугая? Принять решение непросто, ведь питомец потребует дополнительных расходов, внимания и ухода. Если вы переживаете, что не сможете уделять ему достаточно времени, боитесь, что животное окажется назойливым, вам стоит завести сухопутную черепаху.
 Черепахи неприхотливые животные, у них хороший характер. Они не опасны для детей.
@@ -846,6 +819,33 @@
         </is>
       </c>
     </row>
+    <row r="13" ht="40" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>15 July 2022</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmFZ2a.html</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Продам сухопутную черепаху. Забавный и только в хорошие,добрые руки. Цена 5000 тг.</t>
+        </is>
+      </c>
+    </row>
     <row r="14" ht="40" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -864,12 +864,12 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmFZ2a.html</t>
+          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-scoyco-razmer-l-IDlZ3jj.html</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Продам сухопутную черепаху. Забавный и только в хорошие,добрые руки. Цена 5000 тг.</t>
+          <t>Срочно продам черепаху scoyco размер L одевался пару раз  брал в автопилоте  за 60 000 имеется небольшой торг</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>15 July 2022</t>
+          <t>16 July 2022</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-scoyco-razmer-l-IDlZ3jj.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmG9dL.html</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Срочно продам черепаху scoyco размер L одевался пару раз  брал в автопилоте  за 60 000 имеется небольшой торг</t>
+          <t>Продам сухопутную черепаху, очень активная, неприхотливое животное, питается растительностью, будет отличным подарком для ваших деток</t>
         </is>
       </c>
     </row>
@@ -918,12 +918,12 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmG9dL.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmGazZ.html</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Продам сухопутную черепаху, очень активная, неприхотливое животное, питается растительностью, будет отличным подарком для ваших деток</t>
+          <t>Продам сухопутную среднию черепаху отличный вариант для подарка, с домиком и контенером, очень любит салат, огурцы, яблоко, морковь, клубнику, бананы и. т. д ватцап 87056061712</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmGazZ.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-ne-dorogo-IDmGlEg.html</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Продам сухопутную среднию черепаху отличный вариант для подарка, с домиком и контенером, очень любит салат, огурцы, яблоко, морковь, клубнику, бананы и. т. д ватцап 87056061712</t>
+          <t>Продам черепаху за 10 т.тенге .. Обращаться по номеру 77077046678.     СРОЧНО ...</t>
         </is>
       </c>
     </row>
@@ -962,74 +962,20 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>живая черепаха</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16 July 2022</t>
+          <t>17 July 2022</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-ne-dorogo-IDmGlEg.html</t>
+          <t>https://olx.kz/d/obyavlenie/lyagushki-shportsevye-IDmcekS.html</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху за 10 т.тенге .. Обращаться по номеру 77077046678.     СРОЧНО ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="40" customHeight="1">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>16 July 2022</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-novuyu-suvenirnuyu-cherepahu-iz-oae-za-5500-IDkSLyU.html</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>Продам новую сувенирную черепаху из ОАЭ за 5500! Черепаха аккуратная и состоит из ракушек.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="40" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>живая черепаха</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>17 July 2022</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/lyagushki-shportsevye-IDmcekS.html</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Шпорцевыми лягушек называют за характерные коготки на задних лапах. Они помогают животным удерживаться на плаву и цепляться за растения. Амфибия ведет хищнический образ жизни, поэтому содержать ее с другими водными обитателями вряд ли получится. Эти земноводные способны быстро плавать, хотя в аквариумах их очень часто можно наблюдать сидящими на дне или парящими в толще воды.
 Африканские шпорцевые лягушки в домашних условиях способны вырастать до 10-12 см. Они обладают плотным телосложением, небольшой приплюснутой головой, на верхней части которой размещаются два круглых выступающих глаза. Заглянув в ротовую полость, мы обнаружим мелкие зубы, расположенные на верхней челюсти и отсутствующие на нижней.
@@ -1049,28 +995,28 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="40" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
+    <row r="19" ht="40" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>17 July 2022</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahuluchshego-pitomtsa-IDmGpl0.html</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Продаем красноухую черепаху. 
 Самого лучшего питомца.
@@ -1082,6 +1028,60 @@
         </is>
       </c>
     </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>18 July 2022</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-IDmGSi6.html</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Продам рога сайгака , в отличном состояний все вопросы по телефону или в олх</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>18 July 2022</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/roga-saygaka-IDmGOI2.html</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Рога сайгака в хорошем состоянии , не сломанные …</t>
+        </is>
+      </c>
+    </row>
     <row r="22" ht="40" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
@@ -1090,22 +1090,22 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>живая черепаха</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18 July 2022</t>
+          <t>19 July 2022</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-IDmGSi6.html</t>
+          <t>https://olx.kz/d/obyavlenie/filtr-dlya-akvariuma-s-cherepahami-IDlAjZJ.html</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Продам рога сайгака , в отличном состояний все вопросы по телефону или в олх</t>
+          <t>В продаже имеется фильтр для аквариумов с черепахами. По всем интересующим вопросам прошу звонить или писать в ватсап. Живу в районе рынка. Также смотрите другие мои объявления.</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18 July 2022</t>
+          <t>19 July 2022</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/roga-saygaka-IDmGOI2.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-malenkuyu-cherepahu-IDmH3W0.html</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Рога сайгака в хорошем состоянии , не сломанные …</t>
+          <t>продам маленькую сухопутную черепаху, ест капусту, купать надо 2-3раза в неделю.</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>19 July 2022</t>
+          <t>20 July 2022</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/filtr-dlya-akvariuma-s-cherepahami-IDlAjZJ.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhie-cherepahi-IDm2mxZ.html</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>В продаже имеется фильтр для аквариумов с черепахами. По всем интересующим вопросам прошу звонить или писать в ватсап. Живу в районе рынка. Также смотрите другие мои объявления.</t>
+          <t>Продам 2ух красноухих черепашек.Без аквариума и воздуха,в придачу к обоим отдам их островок.Для содержания аквариум обязателен.Кушают замороженную и живую малинку(мотыль),курицу,рыбу.Или поменяю на попугая.Обращатся на вотсап 87711727960 Возможен обмен,рассмотрю любые варианты</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>19 July 2022</t>
+          <t>21 July 2022</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-malenkuyu-cherepahu-IDmH3W0.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-dve-20000-tg-IDmHIP5.html</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>продам маленькую сухопутную черепаху, ест капусту, купать надо 2-3раза в неделю.</t>
+          <t>Продам красноухую черепаху. Одна большая 17-18 см. Второй маленький 7-8 см. Две черепахи стоит 10000 тг. Есть торг. Продаю аквариум 5000 тг. Есть торг. Номер телефона: 87027487150</t>
         </is>
       </c>
     </row>
@@ -1198,22 +1198,22 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>живая черепаха</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>20 July 2022</t>
+          <t>24 July 2022</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhie-cherepahi-IDm2mxZ.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmIsc5.html</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>Продам 2ух красноухих черепашек.Без аквариума и воздуха,в придачу к обоим отдам их островок.Для содержания аквариум обязателен.Кушают замороженную и живую малинку(мотыль),курицу,рыбу.Или поменяю на попугая.Обращатся на вотсап 87711727960 Возможен обмен,рассмотрю любые варианты</t>
+          <t>Продам черепаху водяная  красноухая вместе с аквариумом</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>21 July 2022</t>
+          <t>25 July 2022</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-dve-20000-tg-IDmHIP5.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-rog-saygaka-IDmIIPW.html</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху. Одна большая 17-18 см. Второй маленький 7-8 см. Две черепахи стоит 10000 тг. Есть торг. Продаю аквариум 5000 тг. Есть торг. Номер телефона: 87027487150</t>
+          <t>Продам  сувенирный один рог сайгака в хорошем состоянии писать вацап или звонить олх не читаю</t>
         </is>
       </c>
     </row>
@@ -1252,101 +1252,20 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>степная черепаха</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>22 July 2022</t>
+          <t>25 July 2022</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-vodyanuyu-krasnouhuyu-cherepahu-IDmHU2l.html</t>
+          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-cherepaha-domashnyaya-IDmccCo.html</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>Продам водяную, красноухую черепаху.Активная.Длинна панцыря ≈12 см.Девочка.Любит рыбу,но не нужно акцентироваться на одной рыбе.В еде не прихотлива.Или меняю на рыбок.Варианты обмена.Интересует так же к обмену на фильтр аквариумный с компрессором.Цена  без аквариума 3000тг.С аквариумом 5000т.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="40" customHeight="1">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>24 July 2022</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmIsc5.html</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху водяная  красноухая вместе с аквариумом</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="40" customHeight="1">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>рога сайгака</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>25 July 2022</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-rog-saygaka-IDmIIPW.html</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>Продам  сувенирный один рог сайгака в хорошем состоянии писать вацап или звонить олх не читаю</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="40" customHeight="1">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>степная черепаха</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>25 July 2022</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-cherepaha-domashnyaya-IDmccCo.html</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Домашняя степная маленькая черепаха. Довольно активная. питается травой, одуванчиками,огурцами,морковкой,листьями салата.
 отличный подарок для ребенка,да и в общем домашнее животное)
@@ -1355,82 +1274,82 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="40" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
+    <row r="29" ht="40" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>25 July 2022</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/dekorativnye-kroliki-IDmID7m.html</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Продам двух декоративных кроликов с клеткой. Брали для детей. Хорошие, как мягкие живые игругки, едят морковь, огурцы, яблоки. Пушистики игривые. Дети хотят теперь черепаху. Отличный вариант для маленьких любителей питомцев.</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="40" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
+    <row r="30" ht="40" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>26 July 2022</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-IDmISKn.html</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Срочно Продам черепаху красноухая с аквариумом 35литров, все вопросы по указанному номеру на фото</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="40" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
+    <row r="31" ht="40" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>27 July 2022</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/cherepashki-suhoputnye-IDiR3Iu.html</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Среднеазиатских сухопутных Черепашек размер С ДЕТСКУЮ ЛАДОШКУ ! Окрас панциря от Оливкового до Насыщенно Древесного! Фото реальные - БЕЗ ФОТОШОПА !!! Количество ограниченно- занесены в Красную книгу.
 Цена - 10000тг.
@@ -1446,28 +1365,28 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="40" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
+    <row r="32" ht="40" customHeight="1">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>27 July 2022</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepashka-malyshka-IDjaxae.html</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Среднеазиатские сухопутные Черепашеки размер С ДЕТСКУЮ ЛАДОШКУ ! Окрас панциря от Оливкового до Насыщенно Древесного! Фото реальные - БЕЗ ФОТОШОПА !!! Количество ограниченно- занесены в Красную книгу.
 Цена - 10000тг.
@@ -1483,82 +1402,82 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="40" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
+    <row r="33" ht="40" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>27 July 2022</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-sredneaziatkuyu-cherepahu-IDmJaNC.html</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Продаю черепаху, более 5 лет находится у нас. Продаю в связи с переездом в другкю страну.</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="40" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
+    <row r="34" ht="40" customHeight="1">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>29 July 2022</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-bolshuyu-IDmd2YO.html</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутныю черепаху .Примерно 15 см .Самовывоз. По всем другим вопросам пишите на ватсап.не одыкватных прошу не беспокоить.Только в хорошим руки.</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="40" customHeight="1">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
+    <row r="35" ht="40" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>степная черепаха</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/stepnaya-cherepaha-IDmKbln.html</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Черепаха степная
 Ватсап 87086608032
@@ -1566,116 +1485,83 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="40" customHeight="1">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>живая черепаха</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
+    <row r="36" ht="40" customHeight="1">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/krasnauhaya-cherepahaakvarium-filtr-IDmKalX.html</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>Аквариум на 40 литров до мостика и примерно 100 литров до краев
-Краснаухая черепаха женского пола (размер панциря 13 см в ширину и 10 в длину ) возраст 4 года 
-Фильтр для воды (не знаю что за компания) хорошо чистит 
-Ещё отдам двух анцитрусов они взрослые (мальчики) и корм 
-Могу ещё продать маленький аквариум 
-( Я его использую когда убираюсь в аквариуме или чистую воду ) за 1000 тг
-Самовывоз; живу в майкудуке ;пишите на ватсап ;8 708 503 0570</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="40" customHeight="1">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>30 July 2022</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-3000-tenge-IDmK9IO.html</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху 3 года , в хорошие руки! Нет возможности создать условия для хорошего существование</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="40" customHeight="1">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
+    <row r="37" ht="40" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>31 July 2022</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-s-konteynerom-IDmKh4J.html</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху вместе с контейнером и кормом.  Все в хорошем состоянии.  Продам  за 7000
 Тел 8771 559 4992</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="40" customHeight="1">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
+    <row r="38" ht="40" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>31 July 2022</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmKj0g.html</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху
 С аквариумом и фильтром
@@ -1683,28 +1569,28 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="40" customHeight="1">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
+    <row r="39" ht="40" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>31 July 2022</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmApNA.html</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепашку ,возрост около 10лет
 Питается фруктами и овощами.
@@ -1712,55 +1598,55 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="40" customHeight="1">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
+    <row r="40" ht="40" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>01 August 2022</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-suhoputnaya-sredneaziatskaya-cherepaha-IDmyFWA.html</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Продам продам продам. Продажа оптом от 20шт. Если по 1шт то по 3000тг. Среднеазиатская сухопутная черепаха. Размер большой. Отличный домашний питомец. Ест траву. Не шумный. НЕ ЗВОНИТЬ. ТОЛЬКА ПИСАТЬ. ПИСАТЬ НА ВАТС АПП.</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="40" customHeight="1">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
+    <row r="41" ht="40" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>01 August 2022</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-prodam-krasouhuyu-cherepahu-IDmKL5w.html</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Вода играет огромную роль в жизни красноухих черепах, ведь здесь они добывают пищу, плавают и размножаются. Но постоянно находиться в водной среде рептилии не могут. Поэтому в террариуме обязательно организуется специальный островок суши, где черепахи могут обсохнуть и погреться под лампой. Рептилии ведут хищнический образ жизни, поэтому кормление их только растительной пищей недопустимо.
 Красноухих черепах можно подкармливать кусочками нежирной морской рыбы и «морским коктейлем» (кусочки креветок, осьминогов, кальмаров). Не откажутся рептилии от сорных аквариумных улиток – катушек, меланий, физ, мариз. Иногда можно давать живых или консервированных насекомых.
@@ -1769,6 +1655,115 @@
         </is>
       </c>
     </row>
+    <row r="42" ht="40" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>01 August 2022</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-srochno-IDmKHsY.html</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху связи с переездом в другой город. Есть скидка Ват сап 87471250196</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="40" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>01 August 2022</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmKy7n.html</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху сухопутную шустрый 2года ему можете просмотреть любое время по адресу Солнечная 2 звоните</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="40" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>01 August 2022</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmKNDI.html</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Продам сухопутную черепаху вместе с терариумом  кушает капусту,яблоки,траву и т.д.
+окончательно за 10.000 тысяч</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="40" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>02 August 2022</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-i-korovy-IDmCmNW.html</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Продам рога сайгака, коровы. Времён СССР. Две пары сайгака по 10000 тысяч тенге каждая, коровы 1 большой рог по 5000 тысяч тенге, 5 шт по 2500 тысяч тенге каждая. Телефон для связи: +77713794580</t>
+        </is>
+      </c>
+    </row>
     <row r="46" ht="40" customHeight="1">
       <c r="A46" s="3" t="inlineStr">
         <is>
@@ -1782,151 +1777,15 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>01 August 2022</t>
+          <t>02 August 2022</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-srochno-IDmKHsY.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmL0h9.html</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху связи с переездом в другой город. Есть скидка Ват сап 87471250196</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="40" customHeight="1">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>01 August 2022</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmKy7n.html</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху сухопутную шустрый 2года ему можете просмотреть любое время по адресу Солнечная 2 звоните</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="40" customHeight="1">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>01 August 2022</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmKNDI.html</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>Продам сухопутную черепаху вместе с терариумом  кушает капусту,яблоки,траву и т.д.
-окончательно за 10.000 тысяч</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="40" customHeight="1">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>01 August 2022</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-moto-cherepahu-scoyoco-xl-IDlWsz3.html</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>Продам мото черепаху Scoyoco. Размер Xl. Состояние новой. Отправлю транспортной компанией.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="40" customHeight="1">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>рога сайгака</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>02 August 2022</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-i-korovy-IDmCmNW.html</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>Продам рога сайгака, коровы. Времён СССР. Две пары сайгака по 10000 тысяч тенге каждая, коровы 1 большой рог по 5000 тысяч тенге, 5 шт по 2500 тысяч тенге каждая. Телефон для связи: +77713794580</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="40" customHeight="1">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>02 August 2022</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmL0h9.html</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепаху вместе с терариумом.
 Любит купаться ,живёт как на песке так и на гальке.
@@ -1935,28 +1794,28 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="40" customHeight="1">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
+    <row r="47" ht="40" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>02 August 2022</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmKSp7.html</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепаху кушает капусту,траву,яблоки,марковь и т.д.любит купаться.
 Продам вместе с терариумом.
@@ -1965,138 +1824,138 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="40" customHeight="1">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
+    <row r="48" ht="40" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>рога сайгака</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodaetsya-rog-saygaka-IDmLfgp.html</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Продаётся в отличном состоянии рог Сайгака цена 5000тн. 87750097837. 87756144728.</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="40" customHeight="1">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
+    <row r="49" ht="40" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/cherepaha-na-udachu-IDkehw3.html</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Черепаха,  она принесет вам богатство,  удачу и благополучия.  Это сувенир,  не живая черепаха.</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="40" customHeight="1">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
+    <row r="50" ht="40" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/akvarium-bolshoy-IDmLt7Y.html</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Большой аквариум сделан для хомяка но у меня год в нем черепаха жила все размеры на фото
 Самовывоз;живу в майкудуке;пишите на ватсап 8 708 503 0570</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="40" customHeight="1">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
+    <row r="51" ht="40" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/akvarium-dlya-cherepahi-IDmLts3.html</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>Аквариум ,может кому пригодится (ширина 25 см длина 42 см высота 18,5 см )  продаю из за без надобности
 Самовывоз; живу в майкудуке;пишите на ватсап 8 708 503 0570</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="40" customHeight="1">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
+    <row r="52" ht="40" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmCHdc.html</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>черепашке 8лет, добрая, спокойная, неконфликтная, не кусается. 
 ест только салат и кабачки. 
@@ -2104,248 +1963,137 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="40" customHeight="1">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
+    <row r="53" ht="40" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>рога сайгака</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>04 August 2022</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodayu-roga-saygaka-za-9000-IDmCdSp.html</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>Продаются рога сайгака в очень хорошем состоянии. Длина рог 30 см. Возраст даже не могу сказать. Достались от деда. Относились антиквариату бережно.  Торг минимальный.</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="40" customHeight="1">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>степная черепаха</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
+    <row r="54" ht="40" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>04 August 2022</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-klevuyu-domashnyuyu-cherepahu-IDkkx0i.html</t>
-        </is>
-      </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>Продается обычная степная черепашка,любит листья салата,одуванчика,морковь ,капусту.  Отличное домашнее животное. Ручные черепашки ,людей не боятся. Есть мальчики и девочки. Находимся  нижней части города. Возможно доставка за отдельную плату. МАЛЕНЬКАЯ ЧЕРЕПАХА 10 000ТГ. СРЕДЕЯЯ 7000ТГ. БОЛЬШАЯ 5000тг.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="40" customHeight="1">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>04 August 2022</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmFEBt.html</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>ЗВОНИТЬ, ПИСАТЬ: 8 708 983 87 40
-Продам малыша сухопутной черепахи. Подойдёт как для дома, так и для квартиры. Легко смотреть и ухаживать. Лучшее домашнее животное для тех, чьи дети просят собаку. Звонить, писать.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="40" customHeight="1">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>04 August 2022</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnaya-IDmLy26.html</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепашку в заботливые руки, какой возраст и пол к сожалению не знаю, не разбираюсь. Район Встречи.</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="40" customHeight="1">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>04 August 2022</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-na-vaz-samara-IDmLEeb.html</t>
-        </is>
-      </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху на лада самары все семейства подходит! недорого!</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="40" customHeight="1">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
+    <row r="55" ht="40" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>05 August 2022</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/cherepahi-krasnouhie-IDmKFf8.html</t>
-        </is>
-      </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>Продам двух красноухих черепах (самец и самка), возраст 15 лет. Парой.
-Цена 15000 тг за 1. Самовывоз проспект Аль Фараби 21. 
-Возможно продажа с аквариумом 430 литров. См. другие мои объявления.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="40" customHeight="1">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDm8M0q.html</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Продам сухопутную черепаху. Непривередливые, питаются овощами,  листьями салата, яблоками. Цена 6000 тг</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="40" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>05 August 2022</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDm8M0q.html</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>Продам сухопутную черепаху. Непривередливые, питаются овощами,  листьями салата, яблоками. Цена 6000 тг</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="40" customHeight="1">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>05 August 2022</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-5000-IDmDRG4.html</t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху 5000
 Черепахи относятся к классу пресмыкающихся или рептилий. На нашей планете их существует около 340 форм, которые делятся на морские и наземные. Наземные черепахи, в свою очередь, подразделяются на сухопутные и пресноводные. Появились эти рептилии более 200 миллионов лет назад, в эпоху динозавров.</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="40" customHeight="1">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
+    <row r="57" ht="40" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>06 August 2022</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-sredneaziatskaya-cherepaha-IDmmd8S.html</t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Среднеазиатская черепаха это дикое животное, не предназначенное для жизни в домашних условиях. 
 Чтобы черепаха хотя бы не болела у вас дома, ей нужна специальная УФ лампа и лампа для прогрева, а также правильное питание, витамины и кальций. 
@@ -2355,6 +2103,262 @@
         </is>
       </c>
     </row>
+    <row r="58" ht="40" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>06 August 2022</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMfye.html</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху в хорошем состоянии, незнаю какой размер без торга ,звоните 87779005273</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="40" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>06 August 2022</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-s-akvariumom-IDm2Irt.html</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Продам красноухую черепаху с аквариумом и камнями. Много внимания не требует. Питается легкодоступной пищей.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="40" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>06 August 2022</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-krasnouhaya-samets-vmeste-s-2-akvariumom-i-filtrom-k-IDmMdtY.html</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху красноухая, самец, вместе с 2 аквариумом и фильтром, корм вместе87781720387</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="40" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygi-tsena-dogovornaya-IDmMAL3.html</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Продам рога сайгака,2 пары,с ценой можно договориться,г.Нур-Султан,есть ещё 1 пара</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="40" customHeight="1">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>живая черепаха</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/krasnauhaya-cherepaha-zhenskogo-pola-IDmMD93.html</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Краснаухая черепаха средних размеров (12ширина и 10-11длина) женского пола
+Самовывоз ;живу в майкудуке ;пишите на ватсап</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="40" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>живая черепаха</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/akvarium-dlya-cherepahi-IDmMDk4.html</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Продам аквариум для черепахи с стеклянным островком , размер; длина 70 ,ширина 45, высота 40 см 
+Самовывоз;живу в майкудуке; пишите на ватсап 8708 503 0570</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="40" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/knigi-fentezi-klassika-IDmMCt0.html</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Продам книги цена от 800 тенге
+Джон Грин -черепахи и нет им конца
+Вирджиния вульф-своя комната
+Джек лондон-мартин Иден
+Фицджеральд-великий Гэтсби
+Кевин кван- безумно богатые азиаты
+Рэйчел МИД - Академия вампиров 2 и 3 часть
+Стефани майер-сумерки
+Трейси вульф-жажда
+Лия Арден-Мара и марок 500 лет назад и Мара и Морок особенная тень
+Уолтер тевис-ход королевы</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="40" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmFEBt.html</t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>ЗВОНИТЬ, ПИСАТЬ: 8 708 983 87 40
+Продам малыша сухопутной черепахи. Подойдёт как для дома, так и для квартиры. Легко смотреть и ухаживать. Лучшее домашнее животное для тех, чьи дети просят собаку. Звонить, писать.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="40" customHeight="1">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMGAJ.html</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху. Взрослая. Цена 30000. Торг уместен. Подробнее по номеру+77787328479</t>
+        </is>
+      </c>
+    </row>
     <row r="67" ht="40" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
@@ -2368,17 +2372,17 @@
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>06 August 2022</t>
+          <t>07 August 2022</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMfye.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmMDcg.html</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху в хорошем состоянии, незнаю какой размер без торга ,звоните 87779005273</t>
+          <t>Доброго времени суток! Продаю сухопутную черепашку, черепашка очень милая, может послужить как и подарок ребёнку так и просто для души, кушает листья салата, яблоки, арбузы, зерна вообщем много чего можете загуглить что едят черепахи. Думаю да кто нибудь захочет приютить ее себе. Кстати кличка: Наташа</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2394,22 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>степная черепаха</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>06 August 2022</t>
+          <t>08 August 2022</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-s-akvariumom-IDm2Irt.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-klevuyu-domashnyuyu-cherepahu-IDkkx0i.html</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху с аквариумом и камнями. Много внимания не требует. Питается легкодоступной пищей.</t>
+          <t>Продается обычная степная черепашка,любит листья салата,одуванчика,морковь ,капусту.  Отличное домашнее животное. Ручные черепашки ,людей не боятся. Есть мальчики и девочки. Находимся  нижней части города. Возможно доставка за отдельную плату. МАЛЕНЬКАЯ ЧЕРЕПАХА 10 000ТГ. СРЕДЕЯЯ 7000ТГ. БОЛЬШАЯ 5000тг.</t>
         </is>
       </c>
     </row>
@@ -2422,17 +2426,101 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>06 August 2022</t>
+          <t>08 August 2022</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-krasnouhaya-samets-vmeste-s-2-akvariumom-i-filtrom-k-IDmMdtY.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-srednego-razmera-IDmMJg3.html</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху красноухая, самец, вместе с 2 аквариумом и фильтром, корм вместе87781720387</t>
+          <t>Продам маленькую черепаху. Кушает капусту и листья салата,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="40" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>08 August 2022</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmMKB3.html</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху сухопутную.Черепашка маленькая .Прикольная.Для детей очень интересная.Деткам очень нравится.Находимся в городе Абай.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="40" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>08 August 2022</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-mozhno-dostavku-v-nursultan-IDmMNAF.html</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху можете  доставка. Есть 
+  Черепаха мальчик если доставку можно бесплатно сделать</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="40" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>08 August 2022</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/cherepahi-krasnouhie-IDmKFf8.html</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>Продам двух красноухих черепах (самец и самка), возраст 15 лет. Парой.
+Цена 15000 тг за 1. Самовывоз проспект Аль Фараби 21. 
+Возможно продажа с аквариумом 430 литров. См. другие мои объявления.</t>
         </is>
       </c>
     </row>

--- a/ads.xlsx
+++ b/ads.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,20 +1650,54 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>29 July 2022</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-vse-dlya-kupaniya-malysha-IDmJSon.html</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Продам
+1.ванночку светло.голубой цвета,
+2.горку светло.серая,
+3.круг с шариками,
+4.стульчик для купания,халатик голуб.цвета.
+все фото реальные,лежат без дела.
+5.развивающий коврик(зелёная черепаха),есть некоторые игрушки к нему.
+Фото в другом моём объявление.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="40" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
           <t>степная черепаха</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/stepnaya-cherepaha-IDmKbln.html</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Черепаха степная
 Ватсап 87086608032
@@ -1671,33 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="40" customHeight="1">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>30 July 2022</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-3000-tenge-IDmK9IO.html</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху 3 года , в хорошие руки! Нет возможности создать условия для хорошего существование</t>
-        </is>
-      </c>
-    </row>
     <row r="44" ht="40" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
         <is>
@@ -1716,10 +1723,37 @@
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-3000-tenge-IDmK9IO.html</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху 3 года , в хорошие руки! Нет возможности создать условия для хорошего существование</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="40" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>30 July 2022</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmKcHq.html</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Продам в добрые руки нашего домашнего черепашку)
 Отличный домашний питомец, без хлопот) настоящий друг маленькому малышу)
@@ -1727,28 +1761,28 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="40" customHeight="1">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
+    <row r="46" ht="40" customHeight="1">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-poddelki-iz-prirodnogo-materiala-IDlmvM7.html</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>В наличии только две подделки. На заказ не делаю. Продам подделки из природного материала, сделанные своими руками. Можно в школу или садик. 1..Черепаха, из шляпок от желудей.
 2. Водная лилия, из фисташек и морских камушек. 
@@ -1756,28 +1790,28 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="40" customHeight="1">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
+    <row r="47" ht="40" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-knigi-IDk3twE.html</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>И вспыхнет пламя - 800 тг (ПРОДАНО)
 Голодные игры- 800 тг (ПРОДАНО)
@@ -1794,28 +1828,28 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="40" customHeight="1">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
+    <row r="48" ht="40" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>30 July 2022</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/razvivayuschiy-kovrik-tiny-love-IDmqHiU.html</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Продам коврик развивающий израильского бренда Tiny love
 От 0 месяцев
@@ -1830,28 +1864,28 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="40" customHeight="1">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
+    <row r="49" ht="40" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>31 July 2022</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmKj0g.html</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху
 С аквариумом и фильтром
@@ -1859,28 +1893,28 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="40" customHeight="1">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
+    <row r="50" ht="40" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>31 July 2022</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-korobku-na-svalnuyu-zhatku-cherepaha-sova-IDmy3Jg.html</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Продам коробку на свальную жатку в рабочем рабочем состоянии. 
 87773026065
@@ -1888,33 +1922,6 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="40" customHeight="1">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>31 July 2022</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahi-shkatulka-subiner-novyy-IDlxoaW.html</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>Продам черлипаха субинер и шкатулка очень красивая состояние идеальное 3 шкатулка цена окончательно ступка нет</t>
-        </is>
-      </c>
-    </row>
     <row r="51" ht="40" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
@@ -1933,12 +1940,12 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDlmqq8.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahi-shkatulka-subiner-novyy-IDlxoaW.html</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху красноухая, самец, вместе с аквариумом и фильтром. Отличный подарок для любителей рептилий.</t>
+          <t>Продам черлипаха субинер и шкатулка очень красивая состояние идеальное 3 шкатулка цена окончательно ступка нет</t>
         </is>
       </c>
     </row>
@@ -1960,12 +1967,12 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepashku-IDmKuvt.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDlmqq8.html</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху  по кличке Тарти. Водоплавающая, необходимая среда обитания аквариум. Все вопросы по телефону 87052962294</t>
+          <t>Продам черепаху красноухая, самец, вместе с аквариумом и фильтром. Отличный подарок для любителей рептилий.</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1994,12 @@
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/krasnouhie-vodnye-cherepahi-IDmKuKG.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepashku-IDmKuvt.html</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>продам красноухие водяные черепах,в наличии три штуки не маленького размера,можно трёх сразу с аквариумом,3000 цена за одну черепаху</t>
+          <t>Продам черепаху  по кличке Тарти. Водоплавающая, необходимая среда обитания аквариум. Все вопросы по телефону 87052962294</t>
         </is>
       </c>
     </row>
@@ -2004,20 +2011,47 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>31 July 2022</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhie-vodnye-cherepahi-IDmKuKG.html</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>продам красноухие водяные черепах,в наличии три штуки не маленького размера,можно трёх сразу с аквариумом,3000 цена за одну черепаху</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="40" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>01 August 2022</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-prodam-krasouhuyu-cherepahu-IDmKL5w.html</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Вода играет огромную роль в жизни красноухих черепах, ведь здесь они добывают пищу, плавают и размножаются. Но постоянно находиться в водной среде рептилии не могут. Поэтому в террариуме обязательно организуется специальный островок суши, где черепахи могут обсохнуть и погреться под лампой. Рептилии ведут хищнический образ жизни, поэтому кормление их только растительной пищей недопустимо.
 Красноухих черепах можно подкармливать кусочками нежирной морской рыбы и «морским коктейлем» (кусочки креветок, осьминогов, кальмаров). Не откажутся рептилии от сорных аквариумных улиток – катушек, меланий, физ, мариз. Иногда можно давать живых или консервированных насекомых.
@@ -2026,33 +2060,6 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="40" customHeight="1">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>01 August 2022</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-srochno-IDmKHsY.html</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху связи с переездом в другой город. Есть скидка Ват сап 87471250196</t>
-        </is>
-      </c>
-    </row>
     <row r="56" ht="40" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
@@ -2071,12 +2078,12 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmKy7n.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-srochno-IDmKHsY.html</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху сухопутную шустрый 2года ему можете просмотреть любое время по адресу Солнечная 2 звоните</t>
+          <t>Продам черепаху связи с переездом в другой город. Есть скидка Ват сап 87471250196</t>
         </is>
       </c>
     </row>
@@ -2098,12 +2105,12 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-moto-cherepahu-scoyoco-xl-IDlWsz3.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmKy7n.html</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Продам мото черепаху Scoyoco. Размер Xl. Состояние новой. Отправлю транспортной компанией.</t>
+          <t>Продам черепаху сухопутную шустрый 2года ему можете просмотреть любое время по адресу Солнечная 2 звоните</t>
         </is>
       </c>
     </row>
@@ -2125,71 +2132,71 @@
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-moto-cherepahu-scoyoco-xl-IDlWsz3.html</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Продам мото черепаху Scoyoco. Размер Xl. Состояние новой. Отправлю транспортной компанией.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="40" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>01 August 2022</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-moto-cherepahu-scoyco-xl-IDmKKxU.html</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху Scoyco оригинал размера XL. Покупал через каспи за 70к. В отличном состоянии.
 Если не беру трубку, пишите на Whatsapp</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="40" customHeight="1">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
+    <row r="60" ht="40" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>01 August 2022</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-motocherepahu-scoyco-xl-original-moto-cherepaha-IDmKKrB.html</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху Scoyco оригинал размера XL. Покупал через каспи за 70к. В отличном состоянии.
 Если не отвечаю на телефон, пишите на Whatsapp</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="40" customHeight="1">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>01 August 2022</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-titanovye-diski-cherepaha-IDmlSAp.html</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>Продам титановые диски черепаха от Мерседес 210 дорест 16 Размер, без варки и т.д. диски зимними шинами, задние шины в хорошем состоянии, а передние по краям лысые из за развала схождение, 205 60 16</t>
-        </is>
-      </c>
-    </row>
     <row r="61" ht="40" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
@@ -2208,12 +2215,12 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/kupite-domashnego-cherpahu-devochka-i-ne-kusaetsya-IDmKNrN.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-titanovye-diski-cherepaha-IDmlSAp.html</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>продам черепаху за 20000 тенге хорошая черепаха хорошо есть самка остался один купите</t>
+          <t>Продам титановые диски черепаха от Мерседес 210 дорест 16 Размер, без варки и т.д. диски зимними шинами, задние шины в хорошем состоянии, а передние по краям лысые из за развала схождение, 205 60 16</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2242,12 @@
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-na-60l-IDmAfWX.html</t>
+          <t>https://olx.kz/d/obyavlenie/kupite-domashnego-cherpahu-devochka-i-ne-kusaetsya-IDmKNrN.html</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Продам аквариум для черепахи, на 60литров. С крышкой. Без лампы! Размеры 50*50*42. Самовывоз.</t>
+          <t>продам черепаху за 20000 тенге хорошая черепаха хорошо есть самка остался один купите</t>
         </is>
       </c>
     </row>
@@ -2262,10 +2269,37 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-na-60l-IDmAfWX.html</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Продам аквариум для черепахи, на 60литров. С крышкой. Без лампы! Размеры 50*50*42. Самовывоз.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="40" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>01 August 2022</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/kotenok-ekzotochka-srochno-prodam-IDmKxqP.html</t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>Продам девочку Экзотку. 6 мес. 
 Окрас мраморная черепаха.
@@ -2273,33 +2307,6 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="40" customHeight="1">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>рога сайгака</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>02 August 2022</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-i-korovy-IDmCmNW.html</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>Продам рога сайгака, коровы. Времён СССР. Две пары сайгака по 10000 тысяч тенге каждая, коровы 1 большой рог по 5000 тысяч тенге, 5 шт по 2500 тысяч тенге каждая. Телефон для связи: +77713794580</t>
-        </is>
-      </c>
-    </row>
     <row r="65" ht="40" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
@@ -2308,7 +2315,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2318,12 +2325,12 @@
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-srochno-srochno-IDlmY4z.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-i-korovy-IDmCmNW.html</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Черепаха срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно</t>
+          <t>Продам рога сайгака, коровы. Времён СССР. Две пары сайгака по 10000 тысяч тенге каждая, коровы 1 большой рог по 5000 тысяч тенге, 5 шт по 2500 тысяч тенге каждая. Телефон для связи: +77713794580</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2352,12 @@
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/vaz-lada-2114-v-horoshem-sostoyanii-IDmL5lw.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-srochno-srochno-IDlmY4z.html</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Продам в хорошем состоянии. Черепаха не свареный. Телевизор усиленный. В комплекте 4 зимних шин</t>
+          <t>Черепаха срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно срочно</t>
         </is>
       </c>
     </row>
@@ -2362,22 +2369,22 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>03 August 2022</t>
+          <t>02 August 2022</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodaetsya-rog-saygaka-IDmLfgp.html</t>
+          <t>https://olx.kz/d/obyavlenie/vaz-lada-2114-v-horoshem-sostoyanii-IDmL5lw.html</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Продаётся в отличном состоянии рог Сайгака цена 5000тн. 87750097837. 87756144728.</t>
+          <t>Продам в хорошем состоянии. Черепаха не свареный. Телевизор усиленный. В комплекте 4 зимних шин</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2396,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>живая черепаха</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2399,12 +2406,12 @@
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-na-udachu-IDkehw3.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodaetsya-rog-saygaka-IDmLfgp.html</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Черепаха,  она принесет вам богатство,  удачу и благополучия.  Это сувенир,  не живая черепаха.</t>
+          <t>Продаётся в отличном состоянии рог Сайгака цена 5000тн. 87750097837. 87756144728.</t>
         </is>
       </c>
     </row>
@@ -2426,66 +2433,93 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-na-udachu-IDkehw3.html</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>Черепаха,  она принесет вам богатство,  удачу и благополучия.  Это сувенир,  не живая черепаха.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="40" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>живая черепаха</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>03 August 2022</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/akvarium-bolshoy-IDmLt7Y.html</t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>Большой аквариум сделан для хомяка но у меня год в нем черепаха жила все размеры на фото
 Самовывоз;живу в майкудуке;пишите на ватсап 8 708 503 0570</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="40" customHeight="1">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
+    <row r="71" ht="40" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D70" s="4" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/akvarium-dlya-cherepahi-IDmLts3.html</t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>Аквариум ,может кому пригодится (ширина 25 см длина 42 см высота 18,5 см )  продаю из за без надобности
 Самовывоз; живу в майкудуке;пишите на ватсап 8 708 503 0570</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="40" customHeight="1">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
+    <row r="72" ht="40" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D71" s="4" t="inlineStr">
+      <c r="D72" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmCHdc.html</t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t>черепашке 8лет, добрая, спокойная, неконфликтная, не кусается. 
 ест только салат и кабачки. 
@@ -2493,33 +2527,6 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="40" customHeight="1">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>03 August 2022</t>
-        </is>
-      </c>
-      <c r="D72" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-srochno-prodam-IDmLuDp.html</t>
-        </is>
-      </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху красноухие .10тыс .в хорошие руки.хорошие питомцы для дома.ухаживать некому.вместе с аквариумом</t>
-        </is>
-      </c>
-    </row>
     <row r="73" ht="40" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
@@ -2538,12 +2545,12 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/kupite-cherpahu-samka-toest-devochka-kupite-skoree-domashnyy-IDmLqM4.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-srochno-prodam-IDmLuDp.html</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху за 20000 тг или 15000 тенге или может отдам за 10000тенге может бьть</t>
+          <t>Продам черепаху красноухие .10тыс .в хорошие руки.хорошие питомцы для дома.ухаживать некому.вместе с аквариумом</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2572,12 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-sortirovschik-piramidku-IDmLg6c.html</t>
+          <t>https://olx.kz/d/obyavlenie/kupite-cherpahu-samka-toest-devochka-kupite-skoree-domashnyy-IDmLqM4.html</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>Благодаря дернвянным блокам-кубикам ребёнок сможет изучать различные формы, разных животных, и цвета. Деревянные блоки изображают улитку, черепаху, курицу и бабочку.</t>
+          <t>Продам черепаху за 20000 тг или 15000 тенге или может отдам за 10000тенге может бьть</t>
         </is>
       </c>
     </row>
@@ -2592,12 +2599,12 @@
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/akvarium-dekor-12-litrov-IDmLePn.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-sortirovschik-piramidku-IDmLg6c.html</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Продам аквариум в идеальном состоянии. Отлично впишется в ваш интерьер, а также комфортное проживание ваших домашних животных (рыбки,улитки,черепахи,грызуны.</t>
+          <t>Благодаря дернвянным блокам-кубикам ребёнок сможет изучать различные формы, разных животных, и цвета. Деревянные блоки изображают улитку, черепаху, курицу и бабочку.</t>
         </is>
       </c>
     </row>
@@ -2619,99 +2626,99 @@
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/akvarium-dekor-12-litrov-IDmLePn.html</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>Продам аквариум в идеальном состоянии. Отлично впишется в ваш интерьер, а также комфортное проживание ваших домашних животных (рыбки,улитки,черепахи,грызуны.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="40" customHeight="1">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>03 August 2022</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepah-6000-IDmLfWd.html</t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
+      <c r="E77" s="4" t="inlineStr">
         <is>
           <t>Продаются красноухие(желтобрюхие) черепахи (2шт) идут вместе с аквариумом цена договорная обращаться на ватсап по номеру: 87475191314
 договорная цена!!</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="40" customHeight="1">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
+    <row r="78" ht="40" customHeight="1">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D77" s="4" t="inlineStr">
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/moto-cherepaha-vega-IDm6luG.html</t>
         </is>
       </c>
-      <c r="E77" s="4" t="inlineStr">
+      <c r="E78" s="4" t="inlineStr">
         <is>
           <t>Продам, носил всего пару раз (состояние новое)размер  XXL. Реальному покупателю торг.
 Просто так не беспокоить.</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="40" customHeight="1">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
+    <row r="79" ht="40" customHeight="1">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>03 August 2022</t>
         </is>
       </c>
-      <c r="D78" s="4" t="inlineStr">
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/samsung-a21s-IDmLwQA.html</t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
+      <c r="E79" s="4" t="inlineStr">
         <is>
           <t>Продам самсунг а21с 3:32гб
 В хорошем состоянии  на ремонте был менялся дисплей поставил дисплей хороший стоит бронь стекло черепаха и чехол зарядка доки имеются  имется вариант на редми</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="40" customHeight="1">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>рога сайгака</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>04 August 2022</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodayu-roga-saygaka-za-8000-IDmCdSp.html</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>Продаются рога сайгака в очень хорошем состоянии. Длина рог 30 см. Возраст даже не могу сказать. Достались от деда. Относились антиквариату бережно.  Торг минимальный.</t>
-        </is>
-      </c>
-    </row>
     <row r="80" ht="40" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
@@ -2720,7 +2727,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2730,12 +2737,12 @@
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnaya-IDmLy26.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodayu-roga-saygaka-za-8000-IDmCdSp.html</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>Продам сухопутную черепашку в заботливые руки, какой возраст и пол к сожалению не знаю, не разбираюсь. Район Встречи.</t>
+          <t>Продаются рога сайгака в очень хорошем состоянии. Длина рог 30 см. Возраст даже не могу сказать. Достались от деда. Относились антиквариату бережно.  Торг минимальный.</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2764,12 @@
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-na-vaz-samara-IDmLEeb.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnaya-IDmLy26.html</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху на лада самары все семейства подходит! недорого!</t>
+          <t>Продам сухопутную черепашку в заботливые руки, какой возраст и пол к сожалению не знаю, не разбираюсь. Район Встречи.</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2791,12 @@
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-nochnik-cherepaha-IDmCQ7j.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-na-vaz-samara-IDmLEeb.html</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>Продам ночник черепаха работает хорошо светит разными цветами, поможет ребёнку уснуть без света в комнате.торга нет смотреть на Саина домостроительной</t>
+          <t>Продам черепаху на лада самары все семейства подходит! недорого!</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2818,12 @@
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-obyknovennaya-IDmir6t.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-nochnik-cherepaha-IDmCQ7j.html</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Продам обыкновенную черепаху, ручная, хорошо кушает, живёт в домашних условиях!!!</t>
+          <t>Продам ночник черепаха работает хорошо светит разными цветами, поможет ребёнку уснуть без света в комнате.торга нет смотреть на Саина домостроительной</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2845,12 @@
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDmLKJI.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-obyknovennaya-IDmir6t.html</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху 5 лет, в комплект витамины и немного корма.черепаха живет в воде,в аквариуме.В течении 15-30 минут может находится на сухой поверхности.Очень милая черепаха,Зовут Лео.</t>
+          <t>Продам обыкновенную черепаху, ручная, хорошо кушает, живёт в домашних условиях!!!</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2872,12 @@
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepashku-IDmLDQu.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDmLKJI.html</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Срочно продам черепаху.для любителей этих животных.без капризов. Хороший питомец для детей безопасный .</t>
+          <t>Продам красноухую черепаху 5 лет, в комплект витамины и немного корма.черепаха живет в воде,в аквариуме.В течении 15-30 минут может находится на сухой поверхности.Очень милая черепаха,Зовут Лео.</t>
         </is>
       </c>
     </row>
@@ -2892,12 +2899,12 @@
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/detskiy-razvivayuschiy-kovrik-cherepaha-IDlMWjq.html</t>
+          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepashku-IDmLDQu.html</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>Продам детский развивающий коврик черепаха  для детей. В хорошем состоянии.   ....</t>
+          <t>Срочно продам черепаху.для любителей этих животных.без капризов. Хороший питомец для детей безопасный .</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2926,12 @@
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-IDmLKYv.html</t>
+          <t>https://olx.kz/d/obyavlenie/detskiy-razvivayuschiy-kovrik-cherepaha-IDlMWjq.html</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Продам аквариум. Объем 50 литров. Ширина- 45см., длина 39-см., высота-30см. Аквариум для красноухой черепахи.</t>
+          <t>Продам детский развивающий коврик черепаха  для детей. В хорошем состоянии.   ....</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2953,12 @@
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/yamaha-tzr-250-sport-IDmCuyg.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-IDmLKYv.html</t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>Мотоцикл в отличном тех состоянии задний баллон новый находится в городе жетысай также есть два шлема черепаха защита ног мото куртка камера это продам отдельно все вопросы на вацап 87472579129</t>
+          <t>Продам аквариум. Объем 50 литров. Ширина- 45см., длина 39-см., высота-30см. Аквариум для красноухой черепахи.</t>
         </is>
       </c>
     </row>
@@ -2968,17 +2975,17 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>05 August 2022</t>
+          <t>04 August 2022</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-filtr-gorka-IDm1DDO.html</t>
+          <t>https://olx.kz/d/obyavlenie/yamaha-tzr-250-sport-IDmCuyg.html</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху,фильтр и горку 15 см высота. Возраст 3,5 года.</t>
+          <t>Мотоцикл в отличном тех состоянии задний баллон новый находится в городе жетысай также есть два шлема черепаха защита ног мото куртка камера это продам отдельно все вопросы на вацап 87472579129</t>
         </is>
       </c>
     </row>
@@ -3000,10 +3007,37 @@
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-filtr-gorka-IDm1DDO.html</t>
+        </is>
+      </c>
+      <c r="E90" s="4" t="inlineStr">
+        <is>
+          <t>Продам красноухую черепаху,фильтр и горку 15 см высота. Возраст 3,5 года.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="40" customHeight="1">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>05 August 2022</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/motocherepaha-ekiperovka-zaschita-mototsiklista-evs-g6-ballistic-jersey-IDmDwZc.html</t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr">
+      <c r="E91" s="4" t="inlineStr">
         <is>
           <t>Продам моточерепаху в хорошем состоянии. 
 Моточерепаха EVS G6 Ballistic Jersey
@@ -3019,33 +3053,6 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="40" customHeight="1">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>06 August 2022</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMfye.html</t>
-        </is>
-      </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху в хорошем состоянии, незнаю какой размер без торга ,звоните 87779005273</t>
-        </is>
-      </c>
-    </row>
     <row r="92" ht="40" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
@@ -3064,12 +3071,12 @@
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-s-akvariumom-IDm2Irt.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMfye.html</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху с аквариумом и камнями. Много внимания не требует. Питается легкодоступной пищей.</t>
+          <t>Продам черепаху в хорошем состоянии, незнаю какой размер без торга ,звоните 87779005273</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3098,12 @@
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-krasnouhaya-samets-vmeste-s-2-akvariumom-i-filtrom-k-IDmMdtY.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-s-akvariumom-IDm2Irt.html</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху красноухая, самец, вместе с 2 аквариумом и фильтром, корм вместе87781720387</t>
+          <t>Продам красноухую черепаху с аквариумом и камнями. Много внимания не требует. Питается легкодоступной пищей.</t>
         </is>
       </c>
     </row>
@@ -3118,12 +3125,12 @@
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-filtr-dlya-cherepahi-IDkb3wg.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-krasnouhaya-samets-vmeste-s-2-akvariumom-i-filtrom-k-IDmMdtY.html</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>Продам фильтр для очистки воды,островок для черепах,пользовались месяц по этой же цене,что и брали,7000т</t>
+          <t>Продам черепаху красноухая, самец, вместе с 2 аквариумом и фильтром, корм вместе87781720387</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3152,12 @@
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-uchebnik-angliyskogo-yazyka-IDmDs84.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-filtr-dlya-cherepahi-IDkb3wg.html</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Продам учебник и рабочую тетрадь по английскому языку. Не распечатки а прям книжки. И списано до 25 стр. Простым карандашом. Занимались в золотой черепаху но бросили. Кому надо учебники для дополнительного занятия обращайтесь продам не дорого.</t>
+          <t>Продам фильтр для очистки воды,островок для черепах,пользовались месяц по этой же цене,что и брали,7000т</t>
         </is>
       </c>
     </row>
@@ -3172,12 +3179,12 @@
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/doza-cherepaha-dlya-konfet-varenya-shkatulka-IDm8YCZ.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-uchebnik-angliyskogo-yazyka-IDmDs84.html</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>Продам абсолютно новую, очень красивую дозу, Чешский хрусталь Bohemia.    Цена в магазине 23 500</t>
+          <t>Продам учебник и рабочую тетрадь по английскому языку. Не распечатки а прям книжки. И списано до 25 стр. Простым карандашом. Занимались в золотой черепаху но бросили. Кому надо учебники для дополнительного занятия обращайтесь продам не дорого.</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3206,12 @@
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/kimano-dlya-dzyudo-IDltxVj.html</t>
+          <t>https://olx.kz/d/obyavlenie/doza-cherepaha-dlya-konfet-varenya-shkatulka-IDm8YCZ.html</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Продам кимоно, размер 44-46 ,рост 160, "черепаха" в хорошем состоянии, целое. Верх и низ.</t>
+          <t>Продам абсолютно новую, очень красивую дозу, Чешский хрусталь Bohemia.    Цена в магазине 23 500</t>
         </is>
       </c>
     </row>
@@ -3226,38 +3233,65 @@
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/kimano-dlya-dzyudo-IDltxVj.html</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>Продам кимоно, размер 44-46 ,рост 160, "черепаха" в хорошем состоянии, целое. Верх и низ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="40" customHeight="1">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>06 August 2022</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-detskie-igrushki-IDmMk70.html</t>
         </is>
       </c>
-      <c r="E98" s="4" t="inlineStr">
+      <c r="E99" s="4" t="inlineStr">
         <is>
           <t>Продам детские игрушки.
 Черепахи, моржи, акула, морской конёк, пингвины, морская звезда, касатка, лобстер.</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="40" customHeight="1">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
+    <row r="100" ht="40" customHeight="1">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>06 August 2022</t>
         </is>
       </c>
-      <c r="D99" s="4" t="inlineStr">
+      <c r="D100" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-pazl-mazayku-IDm8EAC.html</t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr">
+      <c r="E100" s="4" t="inlineStr">
         <is>
           <t>Продам новый пазл.
 Мазайка.
@@ -3267,28 +3301,28 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="40" customHeight="1">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
+    <row r="101" ht="40" customHeight="1">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>06 August 2022</t>
         </is>
       </c>
-      <c r="D100" s="4" t="inlineStr">
+      <c r="D101" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-shezlong-kovrik-razvivayuschiy-palatku-s-tunnelem-IDmMkqh.html</t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
+      <c r="E101" s="4" t="inlineStr">
         <is>
           <t>Продам шезлонг 15 тыс, 
 развивающий коврик «Черепаха» 5 тыс, палатку с туннелем 5 тыс, 
@@ -3296,33 +3330,6 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="40" customHeight="1">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>06 August 2022</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/porodistye-kotyata-nedorogo-IDkCRZh.html</t>
-        </is>
-      </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>Продам недорого обалденных и милых,породистых смышлёных котят,разной окраски -чёрные, расцветка -черепаха,рыжие и т.д.и  разной породы,есть гладкошёрстные ,есть сибирские с красивым ворсом,ходят самостоятельно в горшочек.</t>
-        </is>
-      </c>
-    </row>
     <row r="102" ht="40" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
@@ -3331,22 +3338,22 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>07 August 2022</t>
+          <t>06 August 2022</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygi-tsena-dogovornaya-IDmMAL3.html</t>
+          <t>https://olx.kz/d/obyavlenie/porodistye-kotyata-nedorogo-IDkCRZh.html</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>Продам рога сайгака,2 пары,с ценой можно договориться,г.Нур-Султан,есть ещё 1 пара</t>
+          <t>Продам недорого обалденных и милых,породистых смышлёных котят,разной окраски -чёрные, расцветка -черепаха,рыжие и т.д.и  разной породы,есть гладкошёрстные ,есть сибирские с красивым ворсом,ходят самостоятельно в горшочек.</t>
         </is>
       </c>
     </row>
@@ -3358,81 +3365,81 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygi-tsena-dogovornaya-IDmMAL3.html</t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="inlineStr">
+        <is>
+          <t>Продам рога сайгака,2 пары,с ценой можно договориться,г.Нур-Султан,есть ещё 1 пара</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="40" customHeight="1">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
+      <c r="C104" s="3" t="inlineStr">
         <is>
           <t>07 August 2022</t>
         </is>
       </c>
-      <c r="D103" s="4" t="inlineStr">
+      <c r="D104" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/krasnauhaya-cherepaha-zhenskogo-pola-IDmMD93.html</t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
+      <c r="E104" s="4" t="inlineStr">
         <is>
           <t>Краснаухая черепаха средних размеров (12ширина и 10-11длина) женского пола
 Самовывоз ;живу в майкудуке ;пишите на ватсап</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="40" customHeight="1">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="inlineStr">
+    <row r="105" ht="40" customHeight="1">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
+      <c r="C105" s="3" t="inlineStr">
         <is>
           <t>07 August 2022</t>
         </is>
       </c>
-      <c r="D104" s="4" t="inlineStr">
+      <c r="D105" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/akvarium-dlya-cherepahi-IDmMDk4.html</t>
         </is>
       </c>
-      <c r="E104" s="4" t="inlineStr">
+      <c r="E105" s="4" t="inlineStr">
         <is>
           <t>Продам аквариум для черепахи с стеклянным островком , размер; длина 70 ,ширина 45, высота 40 см 
 Самовывоз;живу в майкудуке; пишите на ватсап 8708 503 0570</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="40" customHeight="1">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>07 August 2022</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMGAJ.html</t>
-        </is>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху. Взрослая. Цена 30000. Торг уместен. Подробнее по номеру+77787328479</t>
-        </is>
-      </c>
-    </row>
     <row r="106" ht="40" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
@@ -3451,12 +3458,12 @@
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmMDcg.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmMGAJ.html</t>
         </is>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>Доброго времени суток! Продаю сухопутную черепашку, черепашка очень милая, может послужить как и подарок ребёнку так и просто для души, кушает листья салата, яблоки, арбузы, зерна вообщем много чего можете загуглить что едят черепахи. Думаю да кто нибудь захочет приютить ее себе. Кстати кличка: Наташа</t>
+          <t>Продам черепаху. Взрослая. Цена 30000. Торг уместен. Подробнее по номеру+77787328479</t>
         </is>
       </c>
     </row>
@@ -3478,43 +3485,43 @@
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmMDcg.html</t>
+        </is>
+      </c>
+      <c r="E107" s="4" t="inlineStr">
+        <is>
+          <t>Доброго времени суток! Продаю сухопутную черепашку, черепашка очень милая, может послужить как и подарок ребёнку так и просто для души, кушает листья салата, яблоки, арбузы, зерна вообщем много чего можете загуглить что едят черепахи. Думаю да кто нибудь захочет приютить ее себе. Кстати кличка: Наташа</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="40" customHeight="1">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/cherepaha-s-akvariumom-IDmMpfY.html</t>
         </is>
       </c>
-      <c r="E107" s="4" t="inlineStr">
+      <c r="E108" s="4" t="inlineStr">
         <is>
           <t>Домашняя черепаха со всеми удобствами. Продам сразу с аквариумом. Активная черепаха станет хорошим другом семьи. 
 Тел: 87751760643 ватсап</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="40" customHeight="1">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>07 August 2022</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/cherepashka-ninzya-IDiDAhx.html</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>Построен  б/у 500 тенге. Продам срочноерепашка ниндзя 500 тенге б/у. В коробке без палочки для черепахи</t>
-        </is>
-      </c>
-    </row>
     <row r="109" ht="40" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
@@ -3533,12 +3540,12 @@
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-razvivayuschiy-kovrik-tinylove-IDmMqd3.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepashka-ninzya-IDiDAhx.html</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Продам развивающий коврик с музыкальным блоком (слоник), в хорошем состоянии. Подвески: гиппопотам, попугай, черепаха, нота грызунок, жираф, обезьянка.</t>
+          <t>Построен  б/у 500 тенге. Продам срочноерепашка ниндзя 500 тенге б/у. В коробке без палочки для черепахи</t>
         </is>
       </c>
     </row>
@@ -3560,43 +3567,43 @@
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-razvivayuschiy-kovrik-tinylove-IDmMqd3.html</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>Продам развивающий коврик с музыкальным блоком (слоник), в хорошем состоянии. Подвески: гиппопотам, попугай, черепаха, нота грызунок, жираф, обезьянка.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="40" customHeight="1">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>07 August 2022</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-kartiny-IDleRhF.html</t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr">
+      <c r="E111" s="4" t="inlineStr">
         <is>
           <t>Продам маски из натурального дерева.
 Африканская тематика. Маски приносят удачу, защищают от злых духов. Ручная работа. Украсит любой интерьер. С совой-продана! Остались со слоном и с черепахой - символы богатства и успеха.</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="40" customHeight="1">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>08 August 2022</t>
-        </is>
-      </c>
-      <c r="D111" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-v-vide-podushki-suvenira-IDkjfDH.html</t>
-        </is>
-      </c>
-      <c r="E111" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху в виде подушки сувенира можно использовать как подушку или сувенир очень мягкая удобная</t>
-        </is>
-      </c>
-    </row>
     <row r="112" ht="40" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
@@ -3615,10 +3622,37 @@
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-v-vide-podushki-suvenira-IDkjfDH.html</t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху в виде подушки сувенира можно использовать как подушку или сувенир очень мягкая удобная</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="40" customHeight="1">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>08 August 2022</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmjYWJ.html</t>
         </is>
       </c>
-      <c r="E112" s="4" t="inlineStr">
+      <c r="E113" s="4" t="inlineStr">
         <is>
           <t>ЗВОНИТЬ, ПИСАТЬ: 8 708 983 87 40
 ПРОДАМ! Сухопутную черепаху, или лучшее домашнее животное. Питается салатом, одуванчиками, клевером, подорожником, морковной ботвой. Лучшее домашнее животное для квартиры и дома. Милые и умные, а так же от них в восторге дети. 
@@ -3627,33 +3661,6 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="40" customHeight="1">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>08 August 2022</t>
-        </is>
-      </c>
-      <c r="D113" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-zerkalo-podarochnye-IDieC7R.html</t>
-        </is>
-      </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>Продам зеркала,черепахи стеклянные,розетки,коробочки для украшений. Каждое  наименование в количестве  15-20 штук .</t>
-        </is>
-      </c>
-    </row>
     <row r="114" ht="40" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
@@ -3672,10 +3679,37 @@
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-zerkalo-podarochnye-IDieC7R.html</t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>Продам зеркала,черепахи стеклянные,розетки,коробочки для украшений. Каждое  наименование в количестве  15-20 штук .</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="40" customHeight="1">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>08 August 2022</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/igrovoy-kovrik-cherepaha-fitch-baby-s-sharikami-IDlnYSu.html</t>
         </is>
       </c>
-      <c r="E114" s="4" t="inlineStr">
+      <c r="E115" s="4" t="inlineStr">
         <is>
           <t>Игровой коврик черепаха 
 С шариками и игрушками
@@ -3687,28 +3721,28 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="40" customHeight="1">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
+    <row r="116" ht="40" customHeight="1">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
         <is>
           <t>08 August 2022</t>
         </is>
       </c>
-      <c r="D115" s="4" t="inlineStr">
+      <c r="D116" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-pety-adopt-mi-IDmMO4b.html</t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
+      <c r="E116" s="4" t="inlineStr">
         <is>
           <t>Продам петову каждого цены разныйе но все очень дешыва: 
 Яйцо мифик-200
@@ -3724,33 +3758,6 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="40" customHeight="1">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>08 August 2022</t>
-        </is>
-      </c>
-      <c r="D116" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/akvarium-v-otlichnom-sostoyanii-IDmlVoQ.html</t>
-        </is>
-      </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>Продам аквариум в отличном состоянии, Продаю в связи с тем, что водная черепаха выросла, купили аквариум побольше</t>
-        </is>
-      </c>
-    </row>
     <row r="117" ht="40" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
@@ -3769,12 +3776,12 @@
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-cherepashka-acerbis-koerta-IDkCCpH.html</t>
+          <t>https://olx.kz/d/obyavlenie/akvarium-v-otlichnom-sostoyanii-IDmlVoQ.html</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Продам новую черепашку итальянской фирмы Acerbis Koerta, размер S/M.</t>
+          <t>Продам аквариум в отличном состоянии, Продаю в связи с тем, что водная черепаха выросла, купили аквариум побольше</t>
         </is>
       </c>
     </row>
@@ -3796,10 +3803,37 @@
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-cherepashka-acerbis-koerta-IDkCCpH.html</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>Продам новую черепашку итальянской фирмы Acerbis Koerta, размер S/M.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="40" customHeight="1">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>08 August 2022</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/interaktivnaya-razvivayuschaya-igrushka-chicco-igrovoy-tsentr-hyppo-gym-IDjRyoZ.html</t>
         </is>
       </c>
-      <c r="E118" s="4" t="inlineStr">
+      <c r="E119" s="4" t="inlineStr">
         <is>
           <t>Продам Интерактивную развивающую игрушку Chicco Игровой центр Hippo Gym. 
 Состояние: почти новая. 
@@ -3810,28 +3844,28 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="40" customHeight="1">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
+    <row r="120" ht="40" customHeight="1">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
         <is>
           <t>08 August 2022</t>
         </is>
       </c>
-      <c r="D119" s="4" t="inlineStr">
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/napitok-iz-zmei-IDmtyMr.html</t>
         </is>
       </c>
-      <c r="E119" s="4" t="inlineStr">
+      <c r="E120" s="4" t="inlineStr">
         <is>
           <t>Продам 10 летнию Настойку из Змеи/ Геккона /Черепахи / Женьшеня/ Линьчжи/ Конопли 
 Цена 7000$
@@ -3848,28 +3882,28 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="40" customHeight="1">
-      <c r="A120" s="3" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
+    <row r="121" ht="40" customHeight="1">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
         <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>09 August 2022</t>
         </is>
       </c>
-      <c r="D120" s="4" t="inlineStr">
+      <c r="D121" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/korm-dlya-reptiliy-akva-menyu-ekzokaltsiy-d3-v-zhivom-mire-na-tole-bi-IDjzFEA.html</t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
+      <c r="E121" s="4" t="inlineStr">
         <is>
           <t>ЭКЗОКАЛЬЦИЙ D3– это функциональный корм с витамином D3 для всех видов рептилий. Способствует развитию костей и помогает избежать симптомов недоедания. Особенно нуждаются в нём черепахи, для которых кальций является самым важным элементом для полноценного построения панциря и нормальной жизнедеятельности. 
 Недостаток кальция вызывает снижение естественного иммунитета рептилий, что приводит к повышенному риску возникновения заболеваний, вызывает отставание и задержку в росте, нарушение обмена веществ, неправильное формирование костей скелета. Витамин D3 необходим для успешного усвоения кальция.
@@ -3883,28 +3917,28 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="40" customHeight="1">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
+    <row r="122" ht="40" customHeight="1">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
         <is>
           <t>09 August 2022</t>
         </is>
       </c>
-      <c r="D121" s="4" t="inlineStr">
+      <c r="D122" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-IDmNh4P.html</t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr">
+      <c r="E122" s="4" t="inlineStr">
         <is>
           <t>Продам большую красноухую черепаху красивую 
 Возраст 10 лет 
@@ -3915,33 +3949,6 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="40" customHeight="1">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>09 August 2022</t>
-        </is>
-      </c>
-      <c r="D122" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/moto-cherepaha-zhilet-dlya-moto-IDm863r.html</t>
-        </is>
-      </c>
-      <c r="E122" s="4" t="inlineStr">
-        <is>
-          <t>Продам новый защитный жилет, черепаха. Новый! Размер M. Также имеются защитные штаны, но у них размер XL.</t>
-        </is>
-      </c>
-    </row>
     <row r="123" ht="40" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
@@ -3960,38 +3967,65 @@
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/moto-cherepaha-zhilet-dlya-moto-IDm863r.html</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>Продам новый защитный жилет, черепаха. Новый! Размер M. Также имеются защитные штаны, но у них размер XL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="40" customHeight="1">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>09 August 2022</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmjWcC.html</t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
+      <c r="E124" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепашку, активная, здоровая. Кушает корм и зелень.
 Для её содержания все есть в наличии</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="40" customHeight="1">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
+    <row r="125" ht="40" customHeight="1">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
         <is>
           <t>09 August 2022</t>
         </is>
       </c>
-      <c r="D124" s="4" t="inlineStr">
+      <c r="D125" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-mototsikl-250kubok-IDmNcc5.html</t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
+      <c r="E125" s="4" t="inlineStr">
         <is>
           <t>Продам мотоцикл
 250 кубов 
@@ -4001,33 +4035,6 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="40" customHeight="1">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>09 August 2022</t>
-        </is>
-      </c>
-      <c r="D125" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-kotenka-meyn-kuna-IDmN8LG.html</t>
-        </is>
-      </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>Котенок Мейн Кун девочка. Очень породная. Шикарный длинный хвост. Хорошо наполняется коробка. Очень общительная. Ест все. К лотку приучена. Окрас черепаха. И мать и отец живут в одном доме.</t>
-        </is>
-      </c>
-    </row>
     <row r="126" ht="40" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
@@ -4046,12 +4053,12 @@
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-kotov-i-koshek-IDlVy25.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-kotenka-meyn-kuna-IDmN8LG.html</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>разные породы: сибирские , гладкошерстные , крысоловки и разной окраски : редкая рыжая кошечка гладкошерстная , разноцветные ,тигровые , расцветка черепахи, серые , чёрные . Очень ласковые  , ПРИВИТЫЕ , протравленные  от глистов , возраст разный . Приученные ходить в горшочку и так же ходят через форточку в частном доме , приученные к домашней пищи и в редких случаев даётся сухой корм!</t>
+          <t>Котенок Мейн Кун девочка. Очень породная. Шикарный длинный хвост. Хорошо наполняется коробка. Очень общительная. Ест все. К лотку приучена. Окрас черепаха. И мать и отец живут в одном доме.</t>
         </is>
       </c>
     </row>
@@ -4068,48 +4075,48 @@
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
+          <t>09 August 2022</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-kotov-i-koshek-IDlVy25.html</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>разные породы: сибирские , гладкошерстные , крысоловки и разной окраски : редкая рыжая кошечка гладкошерстная , разноцветные ,тигровые , расцветка черепахи, серые , чёрные . Очень ласковые  , ПРИВИТЫЕ , протравленные  от глистов , возраст разный . Приученные ходить в горшочку и так же ходят через форточку в частном доме , приученные к домашней пищи и в редких случаев даётся сухой корм!</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="40" customHeight="1">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
           <t>10 August 2022</t>
         </is>
       </c>
-      <c r="D127" s="4" t="inlineStr">
+      <c r="D128" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmNi1M.html</t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
+      <c r="E128" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепаху. В уходе неприхотливая. Торг уместен в пределах разумного. 
 Просьба: По пустякам не беспокоить.</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="40" customHeight="1">
-      <c r="A128" s="3" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>10 August 2022</t>
-        </is>
-      </c>
-      <c r="D128" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-nedorogo-IDmNuSo.html</t>
-        </is>
-      </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху с аквариум за 10 тыс.  Прошу звонить по номеру 87478052611 и писать вацап по данному номеру</t>
-        </is>
-      </c>
-    </row>
     <row r="129" ht="40" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
@@ -4128,12 +4135,12 @@
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDmNkGi.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-nedorogo-IDmNuSo.html</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху водянную красноухую , возраст 2 года , весит 1.2 кг , добрая , ручная</t>
+          <t>Продам черепаху с аквариум за 10 тыс.  Прошу звонить по номеру 87478052611 и писать вацап по данному номеру</t>
         </is>
       </c>
     </row>
@@ -4155,12 +4162,12 @@
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-rayd-torg-mozhno-IDmNry9.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDmNkGi.html</t>
         </is>
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху райд все честно вот номер 87716073625 писать на ватсап или звоните, или в телеграмм вот ник kl.laax09, перевод только каспи возможен торг</t>
+          <t>Продам черепаху водянную красноухую , возраст 2 года , весит 1.2 кг , добрая , ручная</t>
         </is>
       </c>
     </row>
@@ -4182,10 +4189,37 @@
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-rayd-torg-mozhno-IDmNry9.html</t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху райд все честно вот номер 87716073625 писать на ватсап или звоните, или в телеграмм вот ник kl.laax09, перевод только каспи возможен торг</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="40" customHeight="1">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>10 August 2022</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-i-na-zakaz-iz-tsementa-IDmNqGU.html</t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr">
+      <c r="E132" s="4" t="inlineStr">
         <is>
           <t>Продам бетонные поделки для сада лягушка черепаха ваза лягушка 5.000 черепаха четыре.000 ваза 5.000
 П.Аксу гресс 8 705 834-82-48
@@ -4193,28 +4227,28 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="40" customHeight="1">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
+    <row r="133" ht="40" customHeight="1">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
         <is>
           <t>10 August 2022</t>
         </is>
       </c>
-      <c r="D132" s="4" t="inlineStr">
+      <c r="D133" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/evropeyskaya-cherepaha-mxforce-v-otlichnom-sostoyanii-IDmNmYB.html</t>
         </is>
       </c>
-      <c r="E132" s="4" t="inlineStr">
+      <c r="E133" s="4" t="inlineStr">
         <is>
           <t>Европейская черепаха mxforce в отличном состоянии размер Л ( рост от 175 до 190см, вес до 95кг где-то) . Продаю по ненадобности . Хорошая защита . 
 Цена: 20 000тг
@@ -4223,61 +4257,34 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="40" customHeight="1">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
+    <row r="134" ht="40" customHeight="1">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>10 August 2022</t>
         </is>
       </c>
-      <c r="D133" s="4" t="inlineStr">
+      <c r="D134" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-motoboty-prodam-IDmNjiJ.html</t>
         </is>
       </c>
-      <c r="E133" s="4" t="inlineStr">
+      <c r="E134" s="4" t="inlineStr">
         <is>
           <t>Продам мотоботы 44 размера, и черепаха от 15 лет и старше.
 Все вопросы на ватсап 87714105801</t>
         </is>
       </c>
     </row>
-    <row r="134" ht="40" customHeight="1">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>10 August 2022</t>
-        </is>
-      </c>
-      <c r="D134" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cheripahu-IDmEX40.html</t>
-        </is>
-      </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>Красноухая черепаха. 6 лет. Ест рыбу, мясо. В стоимость входит фильтр, аквариум.</t>
-        </is>
-      </c>
-    </row>
     <row r="135" ht="40" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
@@ -4296,12 +4303,12 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-gruzinskiy-alasha-antikvar-IDmEGRu.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cheripahu-IDmEX40.html</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Продам грузинский алаша, больше 100 лет, ручная работа, тема черепаха, размер 1.5 на 3.Звонить на номер 87015331675 или ватсапп, 87770137636 ватсап.стоимость его 500$</t>
+          <t>Красноухая черепаха. 6 лет. Ест рыбу, мясо. В стоимость входит фильтр, аквариум.</t>
         </is>
       </c>
     </row>
@@ -4318,15 +4325,42 @@
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
+          <t>10 August 2022</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-gruzinskiy-alasha-antikvar-IDmEGRu.html</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>Продам грузинский алаша, больше 100 лет, ручная работа, тема черепаха, размер 1.5 на 3.Звонить на номер 87015331675 или ватсапп, 87770137636 ватсап.стоимость его 500$</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="40" customHeight="1">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
           <t>11 August 2022</t>
         </is>
       </c>
-      <c r="D136" s="4" t="inlineStr">
+      <c r="D137" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmNyb5.html</t>
         </is>
       </c>
-      <c r="E136" s="4" t="inlineStr">
+      <c r="E137" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху сухопутную.
 Продам черепаху сухопутную
@@ -4334,33 +4368,6 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="40" customHeight="1">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>11 August 2022</t>
-        </is>
-      </c>
-      <c r="D137" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmNEBu.html</t>
-        </is>
-      </c>
-      <c r="E137" s="4" t="inlineStr">
-        <is>
-          <t>Продам сухопутную черепаху. Девочка. Легко ухаживать. Очень активная. Хороший друг.</t>
-        </is>
-      </c>
-    </row>
     <row r="138" ht="40" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
@@ -4379,12 +4386,12 @@
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-i-begemota-IDkxEOg.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmNEBu.html</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>Продам   подушки     в   виде   зверюшек.   Бегемот     1000.   Черепаха     1500</t>
+          <t>Продам сухопутную черепаху. Девочка. Легко ухаживать. Очень активная. Хороший друг.</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4413,12 @@
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDmNLtv.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-i-begemota-IDkxEOg.html</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>продам красноухую черепаху, не болеет, возраст 3 года. Торг уместен. Живёт до 45 лет. Возможен обмен на крыс</t>
+          <t>Продам   подушки     в   виде   зверюшек.   Бегемот     1000.   Черепаха     1500</t>
         </is>
       </c>
     </row>
@@ -4433,12 +4440,12 @@
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-domashnego-cherepahu-horosho-est-devochka-emu-2-goda-IDmNFQy.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDmNLtv.html</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху девочка хорошо ест ему два года мне в город нужно по делам срочно купите</t>
+          <t>продам красноухую черепаху, не болеет, возраст 3 года. Торг уместен. Живёт до 45 лет. Возможен обмен на крыс</t>
         </is>
       </c>
     </row>
@@ -4460,12 +4467,12 @@
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDlXud5.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-domashnego-cherepahu-horosho-est-devochka-emu-2-goda-IDmNFQy.html</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Красивая взрослая черепаха. 5 лет. Продам с аквариумом 30л, район аэропорта. Писать Вацап 87089717663</t>
+          <t>Продам черепаху девочка хорошо ест ему два года мне в город нужно по делам срочно купите</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4494,12 @@
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepahi-suhoputnye-IDmoMj6.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-krasnouhaya-IDlXud5.html</t>
         </is>
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>Продам черепахи сухопутные, не болеют. 3 штуки. Очень добрые. Цена за каждого 6000тенге. Фотографии 3месяца давности. Сейчас они на много выросли. Продаем в связи с переездом.</t>
+          <t>Красивая взрослая черепаха. 5 лет. Продам с аквариумом 30л, район аэропорта. Писать Вацап 87089717663</t>
         </is>
       </c>
     </row>
@@ -4514,12 +4521,12 @@
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-ekipirovku-IDif4wh.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepahi-suhoputnye-IDmoMj6.html</t>
         </is>
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Хороший качественный мотокостюм. Кожа. Состояние отличное. Цена за комплект. Черепаха в подарок. Есть в наличии шлема и каска для чоппера.</t>
+          <t>Продам черепахи сухопутные, не болеют. 3 штуки. Очень добрые. Цена за каждого 6000тенге. Фотографии 3месяца давности. Сейчас они на много выросли. Продаем в связи с переездом.</t>
         </is>
       </c>
     </row>
@@ -4541,10 +4548,37 @@
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-ekipirovku-IDif4wh.html</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>Хороший качественный мотокостюм. Кожа. Состояние отличное. Цена за комплект. Черепаха в подарок. Есть в наличии шлема и каска для чоппера.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="40" customHeight="1">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>11 August 2022</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/razvivayuschiy-kovrik-suhoy-basseyn-IDmvh6W.html</t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr">
+      <c r="E145" s="4" t="inlineStr">
         <is>
           <t>Продам детский коврик развивающий 2в1  сухой бассейн с шариками в наборе бортики поднимаются опускаются 
 Голова черепахи корзина для игрушек 
@@ -4555,28 +4589,28 @@
         </is>
       </c>
     </row>
-    <row r="145" ht="40" customHeight="1">
-      <c r="A145" s="3" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
+    <row r="146" ht="40" customHeight="1">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
         <is>
           <t>11 August 2022</t>
         </is>
       </c>
-      <c r="D145" s="4" t="inlineStr">
+      <c r="D146" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/myagkie-igrushki-dlya-detey-IDmFhYM.html</t>
         </is>
       </c>
-      <c r="E145" s="4" t="inlineStr">
+      <c r="E146" s="4" t="inlineStr">
         <is>
           <t>Продам мягкие игрушки.
 Черепаха, как новая. Можно использовать, как подушку, очень качественная и нежно мягкая- 1800 тг.
@@ -4587,28 +4621,28 @@
         </is>
       </c>
     </row>
-    <row r="146" ht="40" customHeight="1">
-      <c r="A146" s="3" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
+    <row r="147" ht="40" customHeight="1">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
         <is>
           <t>11 August 2022</t>
         </is>
       </c>
-      <c r="D146" s="4" t="inlineStr">
+      <c r="D147" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/gzhelskie-i-ne-tolko-figurki-IDmNC0w.html</t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
+      <c r="E147" s="4" t="inlineStr">
         <is>
           <t>Красивые милые гжельские фигурки зверей: обезьяна, дракон, петух, змея, лошадь, коза, баран, кролик, саинья, мышь и один ангелочек. 
 Так же есть простые стеклянные фигурки: лиса и черепаха 
@@ -4620,28 +4654,28 @@
         </is>
       </c>
     </row>
-    <row r="147" ht="40" customHeight="1">
-      <c r="A147" s="3" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="B147" s="3" t="inlineStr">
+    <row r="148" ht="40" customHeight="1">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="C148" s="3" t="inlineStr">
         <is>
           <t>12 August 2022</t>
         </is>
       </c>
-      <c r="D147" s="4" t="inlineStr">
+      <c r="D148" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/cherepaha-suhoputnaya-sredneaziatskaya-IDkAkve.html</t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
+      <c r="E148" s="4" t="inlineStr">
         <is>
           <t>Молодые черепашки, размер около 10-13см в диаметре. 
 Есть всё необходимое для их содержания 
@@ -4657,33 +4691,6 @@
         </is>
       </c>
     </row>
-    <row r="148" ht="40" customHeight="1">
-      <c r="A148" s="3" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="B148" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>12 August 2022</t>
-        </is>
-      </c>
-      <c r="D148" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmNSi2.html</t>
-        </is>
-      </c>
-      <c r="E148" s="4" t="inlineStr">
-        <is>
-          <t>Продам сухопутную черепаху, особого ухода не требует только менять коробочку, кормить вовремя, все вопросы по телефону 87473069467</t>
-        </is>
-      </c>
-    </row>
     <row r="149" ht="40" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
@@ -4702,12 +4709,12 @@
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-britanku-okras-cherepaha-IDmO2wI.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmNSi2.html</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Продам британец девочку . Окрас черепаха . Очень умная , кушает всё, корма не знает . Туалет знает на 5+.</t>
+          <t>Продам сухопутную черепаху, особого ухода не требует только менять коробочку, кормить вовремя, все вопросы по телефону 87473069467</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4736,12 @@
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-igrushki-cherepaha-nidzya-original-v-otlichnom-sostoyanii-IDkKSO4.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-britanku-okras-cherepaha-IDmO2wI.html</t>
         </is>
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>Продам игрушки в отличном состоянии. Черепаха нидзя оригинал. Все суставы двигаются. Железный человек светит лазарем на груди. За всё 2000.</t>
+          <t>Продам британец девочку . Окрас черепаха . Очень умная , кушает всё, корма не знает . Туалет знает на 5+.</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4763,12 @@
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-i-vse-komplekiuyuschie-IDm3LrW.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-igrushki-cherepaha-nidzya-original-v-otlichnom-sostoyanii-IDkKSO4.html</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Продам аквариум с подсветкой 12 литров, водонагреватель, фильтр. И все декорации. Так же плотик, если вдруг решите красноухую черепаху держать. Все в отличном и рабочем состоянии. В подарок насос для чистки аквариума. Новый</t>
+          <t>Продам игрушки в отличном состоянии. Черепаха нидзя оригинал. Все суставы двигаются. Железный человек светит лазарем на груди. За всё 2000.</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4790,12 @@
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-koshechku-meynkun-IDmsk2V.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-i-vse-komplekiuyuschie-IDm3LrW.html</t>
         </is>
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>Продам кошечку чёрная черепаха. Яркая крупная. Ко всему приучен. Ласковая. Разговорчивая. Спит ночью. Спокойная. Кушает даже супчик и кашки. К корму не принципиальная.</t>
+          <t>Продам аквариум с подсветкой 12 литров, водонагреватель, фильтр. И все декорации. Так же плотик, если вдруг решите красноухую черепаху держать. Все в отличном и рабочем состоянии. В подарок насос для чистки аквариума. Новый</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4817,12 @@
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/figurki-geroev-iz-pvh-IDlZFxa.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-koshechku-meynkun-IDmsk2V.html</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Продам оригинальные коллекционные фигурки ниндзя черпах из ПВХ. Все конечности двигаются.Оружия металлические. Состояние новых фигурок. Черепахи высотой 13,5см  с  металлическими топорами и кинжалами по 6000тг каждая. Если все заберёте ,то отдам все за 18000тг</t>
+          <t>Продам кошечку чёрная черепаха. Яркая крупная. Ко всему приучен. Ласковая. Разговорчивая. Спит ночью. Спокойная. Кушает даже супчик и кашки. К корму не принципиальная.</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4844,12 @@
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/kotyata-sfinks-prodam-IDmNVGy.html</t>
+          <t>https://olx.kz/d/obyavlenie/figurki-geroev-iz-pvh-IDlZFxa.html</t>
         </is>
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>Продам котят сфинкс вельвет и голорожденные. Котята родились 8 июля. Кушают сами. Папа канадский сфинкс голый а мама донской сфинкс вельвет окрас черепаха. Папа сразу был лысый, мама была с пушком, к 6 месяцам стала голенькой. К лодку приучены. Котята ищут добрые, заботливые руки. т. 87773844403</t>
+          <t>Продам оригинальные коллекционные фигурки ниндзя черпах из ПВХ. Все конечности двигаются.Оружия металлические. Состояние новых фигурок. Черепахи высотой 13,5см  с  металлическими топорами и кинжалами по 6000тг каждая. Если все заберёте ,то отдам все за 18000тг</t>
         </is>
       </c>
     </row>
@@ -4864,12 +4871,12 @@
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/iphone12-pro-128-gb-IDmDqiQ.html</t>
+          <t>https://olx.kz/d/obyavlenie/kotyata-sfinks-prodam-IDmNVGy.html</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Продам телефон:айфон 12 про 128 гб. В отличном состояний.  Цвет синий. Комплект полный с завода изготовителя. Батарея 87%. Без царапины без сколов. Имеется защитная пленка «черепаха». Продаю так как купил другой телефон.</t>
+          <t>Продам котят сфинкс вельвет и голорожденные. Котята родились 8 июля. Кушают сами. Папа канадский сфинкс голый а мама донской сфинкс вельвет окрас черепаха. Папа сразу был лысый, мама была с пушком, к 6 месяцам стала голенькой. К лодку приучены. Котята ищут добрые, заботливые руки. т. 87773844403</t>
         </is>
       </c>
     </row>
@@ -4886,17 +4893,17 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>13 August 2022</t>
+          <t>12 August 2022</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDmwWxF.html</t>
+          <t>https://olx.kz/d/obyavlenie/iphone12-pro-128-gb-IDmDqiQ.html</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую черепаху с аквариумом, фильтром и домиком. Вопросы по телефону</t>
+          <t>Продам телефон:айфон 12 про 128 гб. В отличном состояний.  Цвет синий. Комплект полный с завода изготовителя. Батарея 87%. Без царапины без сколов. Имеется защитная пленка «черепаха». Продаю так как купил другой телефон.</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4925,12 @@
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/diski-cherepahi-na-15-mersedes-pruzhiny-e46-i-e36-ID9ThWo.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDmwWxF.html</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Продам оригинальный комплект сток пружин на е46. В идеальном состоянии. Так же есть комплект на Е36 оригинал. Диски черепахи на 15 с новой зимней резиной.</t>
+          <t>Продам красноухую черепаху с аквариумом, фильтром и домиком. Вопросы по телефону</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4952,12 @@
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-IDmGlqC.html</t>
+          <t>https://olx.kz/d/obyavlenie/diski-cherepahi-na-15-mersedes-pruzhiny-e46-i-e36-ID9ThWo.html</t>
         </is>
       </c>
       <c r="E158" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухих черепах , взрослая пара , самка и самец .</t>
+          <t>Продам оригинальный комплект сток пружин на е46. В идеальном состоянии. Так же есть комплект на Е36 оригинал. Диски черепахи на 15 с новой зимней резиной.</t>
         </is>
       </c>
     </row>
@@ -4972,10 +4979,37 @@
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-IDmGlqC.html</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="inlineStr">
+        <is>
+          <t>Продам красноухих черепах , взрослая пара , самка и самец .</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="40" customHeight="1">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>13 August 2022</t>
+        </is>
+      </c>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-adopt-za-tenge-IDmFLol.html</t>
         </is>
       </c>
-      <c r="E159" s="4" t="inlineStr">
+      <c r="E160" s="4" t="inlineStr">
         <is>
           <t>Продаю адопт за тенге
 Цены:
@@ -4987,61 +5021,34 @@
         </is>
       </c>
     </row>
-    <row r="160" ht="40" customHeight="1">
-      <c r="A160" s="3" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="B160" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C160" s="3" t="inlineStr">
+    <row r="161" ht="40" customHeight="1">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
         <is>
           <t>13 August 2022</t>
         </is>
       </c>
-      <c r="D160" s="4" t="inlineStr">
+      <c r="D161" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/srochno-prodam-vaz-2108-IDmO9VH.html</t>
         </is>
       </c>
-      <c r="E160" s="4" t="inlineStr">
+      <c r="E161" s="4" t="inlineStr">
         <is>
           <t>Срочно ВАЗ 2108. Подробнее по телефону: 87002902106 звонить
 Черепаха кеткен! А так калган жерлери норм жасайды! Алам деген адамга жаксы тусиремиз!</t>
         </is>
       </c>
     </row>
-    <row r="161" ht="40" customHeight="1">
-      <c r="A161" s="3" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="B161" s="3" t="inlineStr">
-        <is>
-          <t>рога сайгака</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="inlineStr">
-        <is>
-          <t>14 August 2022</t>
-        </is>
-      </c>
-      <c r="D161" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodayu-roga-saygaka-IDma8Bk.html</t>
-        </is>
-      </c>
-      <c r="E161" s="4" t="inlineStr">
-        <is>
-          <t>Продаю рога сайгака за 18000 тг. 2шт продаю рога сайгака. Продаю рога сайгака. Продаю рога сайгака</t>
-        </is>
-      </c>
-    </row>
     <row r="162" ht="40" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
@@ -5050,7 +5057,7 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>живая черепаха</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -5060,12 +5067,12 @@
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/zhivaya-domashnyaya-cherepaha-IDmOtZc.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodayu-roga-saygaka-IDma8Bk.html</t>
         </is>
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>Продам Живую домашнюю черепаху! Активная, интересная черепаха! Не привередливая к еде!</t>
+          <t>Продаю рога сайгака за 18000 тг. 2шт продаю рога сайгака. Продаю рога сайгака. Продаю рога сайгака</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5084,7 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>живая черепаха</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -5087,12 +5094,12 @@
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-scoyco-razmer-l-IDlZ3jj.html</t>
+          <t>https://olx.kz/d/obyavlenie/zhivaya-domashnyaya-cherepaha-IDmOtZc.html</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Срочно продам черепаху scoyco размер L одевался пару раз  брал в автопилоте  за 60 000 имеется небольшой торг</t>
+          <t>Продам Живую домашнюю черепаху! Активная, интересная черепаха! Не привередливая к еде!</t>
         </is>
       </c>
     </row>
@@ -5114,12 +5121,12 @@
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/razvivayuschiy-kovrik-IDmOtTd.html</t>
+          <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-scoyco-razmer-l-IDlZ3jj.html</t>
         </is>
       </c>
       <c r="E164" s="4" t="inlineStr">
         <is>
-          <t>Продам развивающий коврик черепаха. Шарики, игрушки  имеются.  Чистый. Район Жагалау.</t>
+          <t>Срочно продам черепаху scoyco размер L одевался пару раз  брал в автопилоте  за 60 000 имеется небольшой торг</t>
         </is>
       </c>
     </row>
@@ -5141,10 +5148,37 @@
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/razvivayuschiy-kovrik-IDmOtTd.html</t>
+        </is>
+      </c>
+      <c r="E165" s="4" t="inlineStr">
+        <is>
+          <t>Продам развивающий коврик черепаха. Шарики, игрушки  имеются.  Чистый. Район Жагалау.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="40" customHeight="1">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>14 August 2022</t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-akvarium-IDmOtAX.html</t>
         </is>
       </c>
-      <c r="E165" s="4" t="inlineStr">
+      <c r="E166" s="4" t="inlineStr">
         <is>
           <t>Продам аквариум ширина 40 см
 Высота 40 см
@@ -5155,28 +5189,28 @@
         </is>
       </c>
     </row>
-    <row r="166" ht="40" customHeight="1">
-      <c r="A166" s="3" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="B166" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C166" s="3" t="inlineStr">
+    <row r="167" ht="40" customHeight="1">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
         <is>
           <t>14 August 2022</t>
         </is>
       </c>
-      <c r="D166" s="4" t="inlineStr">
+      <c r="D167" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-akvarium-steklyannyy-IDmFAfg.html</t>
         </is>
       </c>
-      <c r="E166" s="4" t="inlineStr">
+      <c r="E167" s="4" t="inlineStr">
         <is>
           <t>Продам аквариум для черепахи или разведения малька.
 Толщина стекла 4 мм. Объем 25 литров. 
@@ -5186,28 +5220,28 @@
         </is>
       </c>
     </row>
-    <row r="167" ht="40" customHeight="1">
-      <c r="A167" s="3" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="B167" s="3" t="inlineStr">
+    <row r="168" ht="40" customHeight="1">
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C167" s="3" t="inlineStr">
+      <c r="C168" s="3" t="inlineStr">
         <is>
           <t>15 August 2022</t>
         </is>
       </c>
-      <c r="D167" s="4" t="inlineStr">
+      <c r="D168" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmOCId.html</t>
         </is>
       </c>
-      <c r="E167" s="4" t="inlineStr">
+      <c r="E168" s="4" t="inlineStr">
         <is>
           <t>Продам среднеазиатскую сухопутную черепаху
 Черепаха неприхотлива в уходе ,питается в основном растениями ,овощами
@@ -5217,33 +5251,6 @@
         </is>
       </c>
     </row>
-    <row r="168" ht="40" customHeight="1">
-      <c r="A168" s="3" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="B168" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C168" s="3" t="inlineStr">
-        <is>
-          <t>15 August 2022</t>
-        </is>
-      </c>
-      <c r="D168" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-bolshuyu-suhoputnuyu-cherepahu-5000-IDmOJN2.html</t>
-        </is>
-      </c>
-      <c r="E168" s="4" t="inlineStr">
-        <is>
-          <t>Продам большую сухопутную черепаху</t>
-        </is>
-      </c>
-    </row>
     <row r="169" ht="40" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
@@ -5252,22 +5259,22 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>рога сайгака</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>16 August 2022</t>
+          <t>15 August 2022</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-IDmOSpP.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-bolshuyu-suhoputnuyu-cherepahu-5000-IDmOJN2.html</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Продам рога сайгака..Длинна 30 сантиметров..вес почти пол килограмма.цену звоните уточняйте.</t>
+          <t>Продам большую сухопутную черепаху</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5286,7 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>рога сайгака</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5289,12 +5296,12 @@
       </c>
       <c r="D170" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmOPn5.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-IDmOSpP.html</t>
         </is>
       </c>
       <c r="E170" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху сухопутную с аквариумом вместе . Кушает огурцы,  листья салата , капусту. Цена 5000 вместе с аквариумом и наполнителем.</t>
+          <t>Продам рога сайгака..Длинна 30 сантиметров..вес почти пол килограмма.цену звоните уточняйте.</t>
         </is>
       </c>
     </row>
@@ -5316,12 +5323,12 @@
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmOTyE.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmOPn5.html</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Продам Черепаху сухопутную.Находимся в городе.Абай.Прикольная детям очень нравится</t>
+          <t>Продам черепаху сухопутную с аквариумом вместе . Кушает огурцы,  листья салата , капусту. Цена 5000 вместе с аквариумом и наполнителем.</t>
         </is>
       </c>
     </row>
@@ -5343,10 +5350,37 @@
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmOTyE.html</t>
+        </is>
+      </c>
+      <c r="E172" s="4" t="inlineStr">
+        <is>
+          <t>Продам Черепаху сухопутную.Находимся в городе.Абай.Прикольная детям очень нравится</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="40" customHeight="1">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>16 August 2022</t>
+        </is>
+      </c>
+      <c r="D173" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahuluchshego-pitomtsa-IDmGpl0.html</t>
         </is>
       </c>
-      <c r="E172" s="4" t="inlineStr">
+      <c r="E173" s="4" t="inlineStr">
         <is>
           <t>Продаем красноухую черепаху. 
 Самого лучшего питомца.
@@ -5358,56 +5392,56 @@
         </is>
       </c>
     </row>
-    <row r="173" ht="40" customHeight="1">
-      <c r="A173" s="3" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="B173" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C173" s="3" t="inlineStr">
+    <row r="174" ht="40" customHeight="1">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
         <is>
           <t>16 August 2022</t>
         </is>
       </c>
-      <c r="D173" s="4" t="inlineStr">
+      <c r="D174" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/adopt-mi-prodam-fr-cherepahu-za-2000-tg-IDmP3W6.html</t>
         </is>
       </c>
-      <c r="E173" s="4" t="inlineStr">
+      <c r="E174" s="4" t="inlineStr">
         <is>
           <t>писать в лс,оплата по каспи!!
 не первая,если боитесь или не верите не пишите пожалуйста:))</t>
         </is>
       </c>
     </row>
-    <row r="174" ht="40" customHeight="1">
-      <c r="A174" s="3" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="B174" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C174" s="3" t="inlineStr">
+    <row r="175" ht="40" customHeight="1">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
         <is>
           <t>16 August 2022</t>
         </is>
       </c>
-      <c r="D174" s="4" t="inlineStr">
+      <c r="D175" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-IDm4LGV.html</t>
         </is>
       </c>
-      <c r="E174" s="4" t="inlineStr">
+      <c r="E175" s="4" t="inlineStr">
         <is>
           <t>Продам молодых черепашек.
 В домашних условиях красноухой черепахе будет комфортнее всего в просторном акватеррариуме, в котором обязательно должен быть островок без воды.
@@ -5416,33 +5450,6 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="40" customHeight="1">
-      <c r="A175" s="3" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C175" s="3" t="inlineStr">
-        <is>
-          <t>16 August 2022</t>
-        </is>
-      </c>
-      <c r="D175" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/adopt-mi-prodam-fr-cherepahu-za-2000-tg-IDmP3Rt.html</t>
-        </is>
-      </c>
-      <c r="E175" s="4" t="inlineStr">
-        <is>
-          <t>писать в лс,оплата по каспи.не первая,если боитесь и не верите не пишите и не тратьте мое и свое время:))</t>
-        </is>
-      </c>
-    </row>
     <row r="176" ht="40" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
@@ -5461,12 +5468,12 @@
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepahu-bolshuyu-IDmOZ8a.html</t>
+          <t>https://olx.kz/d/obyavlenie/adopt-mi-prodam-fr-cherepahu-za-2000-tg-IDmP3Rt.html</t>
         </is>
       </c>
       <c r="E176" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху с аквариумом  большая красивая. детям понравится. 6мкр или обменяю на рыбок</t>
+          <t>писать в лс,оплата по каспи.не первая,если боитесь и не верите не пишите и не тратьте мое и свое время:))</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5495,37 @@
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/cherepahu-bolshuyu-IDmOZ8a.html</t>
+        </is>
+      </c>
+      <c r="E177" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху с аквариумом  большая красивая. детям понравится. 6мкр или обменяю на рыбок</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="40" customHeight="1">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>16 August 2022</t>
+        </is>
+      </c>
+      <c r="D178" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepashku-krasnouhuyu-IDmG7rd.html</t>
         </is>
       </c>
-      <c r="E177" s="4" t="inlineStr">
+      <c r="E178" s="4" t="inlineStr">
         <is>
           <t>Продаем красноухую черепаху. Возраст 3 года. Любит овощи, фрукты, мясо, морепродукты. Хороший помощник в доме.
 Черепаха — символ медленного, но верного движения вперёд. Черпайте силы в созерцании маленькой бронированной путешественницы и ставьте перед собой любые цели. Поверьте, что они достижимы! Особенно если рядом находится упорный и невозмутимый зверёк.
@@ -5500,28 +5534,28 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="40" customHeight="1">
-      <c r="A178" s="3" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="B178" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C178" s="3" t="inlineStr">
+    <row r="179" ht="40" customHeight="1">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
         <is>
           <t>16 August 2022</t>
         </is>
       </c>
-      <c r="D178" s="4" t="inlineStr">
+      <c r="D179" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-inzhektor-v-sbore-ot-audi-100-s4-IDjodjv.html</t>
         </is>
       </c>
-      <c r="E178" s="4" t="inlineStr">
+      <c r="E179" s="4" t="inlineStr">
         <is>
           <t>Продам механический инжектор  в сборе 2 л   (4-х цилиндровый )
 Каса
@@ -5538,28 +5572,28 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="40" customHeight="1">
-      <c r="A179" s="3" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C179" s="3" t="inlineStr">
+    <row r="180" ht="40" customHeight="1">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
         <is>
           <t>16 August 2022</t>
         </is>
       </c>
-      <c r="D179" s="4" t="inlineStr">
+      <c r="D180" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/braslety-s-businoy-dzi-IDmP5ar.html</t>
         </is>
       </c>
-      <c r="E179" s="4" t="inlineStr">
+      <c r="E180" s="4" t="inlineStr">
         <is>
           <t>продам браслеты с бусиной дзи по 3000 тенге каждый
 в наличии 6 видов:
@@ -5574,28 +5608,28 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="40" customHeight="1">
-      <c r="A180" s="3" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="B180" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C180" s="3" t="inlineStr">
+    <row r="181" ht="40" customHeight="1">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
         <is>
           <t>16 August 2022</t>
         </is>
       </c>
-      <c r="D180" s="4" t="inlineStr">
+      <c r="D181" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-chaynyy-nabor-IDjcECs.html</t>
         </is>
       </c>
-      <c r="E180" s="4" t="inlineStr">
+      <c r="E181" s="4" t="inlineStr">
         <is>
           <t>Продам новые чайные наборы: чайник и сахарница, керамические. Производства Украина. 
 1. Черепаха: чайник 1.1л, сахарница 0,55л;
@@ -5610,33 +5644,6 @@
         </is>
       </c>
     </row>
-    <row r="181" ht="40" customHeight="1">
-      <c r="A181" s="3" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>рога сайгака</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>17 August 2022</t>
-        </is>
-      </c>
-      <c r="D181" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-IDmGSi6.html</t>
-        </is>
-      </c>
-      <c r="E181" s="4" t="inlineStr">
-        <is>
-          <t>Продам рога сайгака , в отличном состояний все вопросы по телефону или в олх</t>
-        </is>
-      </c>
-    </row>
     <row r="182" ht="40" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
@@ -5655,12 +5662,12 @@
       </c>
       <c r="D182" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/roga-saygaka-IDmGOI2.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-roga-saygaka-IDmGSi6.html</t>
         </is>
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>Рога сайгака в хорошем состоянии , не сломанные …</t>
+          <t>Продам рога сайгака , в отличном состояний все вопросы по телефону или в олх</t>
         </is>
       </c>
     </row>
@@ -5672,20 +5679,47 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>17 August 2022</t>
+        </is>
+      </c>
+      <c r="D183" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/roga-saygaka-IDmGOI2.html</t>
+        </is>
+      </c>
+      <c r="E183" s="4" t="inlineStr">
+        <is>
+          <t>Рога сайгака в хорошем состоянии , не сломанные …</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="40" customHeight="1">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
           <t>живая черепаха</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
+      <c r="C184" s="3" t="inlineStr">
         <is>
           <t>17 August 2022</t>
         </is>
       </c>
-      <c r="D183" s="4" t="inlineStr">
+      <c r="D184" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/lyagushki-shportsevye-IDmcekS.html</t>
         </is>
       </c>
-      <c r="E183" s="4" t="inlineStr">
+      <c r="E184" s="4" t="inlineStr">
         <is>
           <t>Шпорцевыми лягушек называют за характерные коготки на задних лапах. Они помогают животным удерживаться на плаву и цепляться за растения. Амфибия ведет хищнический образ жизни, поэтому содержать ее с другими водными обитателями вряд ли получится. Эти земноводные способны быстро плавать, хотя в аквариумах их очень часто можно наблюдать сидящими на дне или парящими в толще воды.
 Африканские шпорцевые лягушки в домашних условиях способны вырастать до 10-12 см. Они обладают плотным телосложением, небольшой приплюснутой головой, на верхней части которой размещаются два круглых выступающих глаза. Заглянув в ротовую полость, мы обнаружим мелкие зубы, расположенные на верхней челюсти и отсутствующие на нижней.
@@ -5705,56 +5739,56 @@
         </is>
       </c>
     </row>
-    <row r="184" ht="40" customHeight="1">
-      <c r="A184" s="3" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C184" s="3" t="inlineStr">
+    <row r="185" ht="40" customHeight="1">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>17 August 2022</t>
         </is>
       </c>
-      <c r="D184" s="4" t="inlineStr">
+      <c r="D185" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmPgJo.html</t>
         </is>
       </c>
-      <c r="E184" s="4" t="inlineStr">
+      <c r="E185" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепаху 
 Село Кыргауылды</t>
         </is>
       </c>
     </row>
-    <row r="185" ht="40" customHeight="1">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
+    <row r="186" ht="40" customHeight="1">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
         <is>
           <t>17 August 2022</t>
         </is>
       </c>
-      <c r="D185" s="4" t="inlineStr">
+      <c r="D186" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-zaschitu-cherepahu-IDmPme7.html</t>
         </is>
       </c>
-      <c r="E185" s="4" t="inlineStr">
+      <c r="E186" s="4" t="inlineStr">
         <is>
           <t>Продам защиту на тело! (черепаха)
 защищает очень хорошо, сидит идеально! спасет ваши руки (локти плечи), живот и спину! 
@@ -5764,33 +5798,6 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="40" customHeight="1">
-      <c r="A186" s="3" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C186" s="3" t="inlineStr">
-        <is>
-          <t>17 August 2022</t>
-        </is>
-      </c>
-      <c r="D186" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnaya-s-akvariumom-srochno-IDmP8OQ.html</t>
-        </is>
-      </c>
-      <c r="E186" s="4" t="inlineStr">
-        <is>
-          <t>Срочно продам черепаху сухопутная с аквариумом. Причина продажи переезд в другой город. Срочно за 7000 с аквариумом, Цена договорная.</t>
-        </is>
-      </c>
-    </row>
     <row r="187" ht="40" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
@@ -5809,12 +5816,12 @@
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-novuyu-suvenirnuyu-cherepahu-iz-oae-za-5500-IDkSLyU.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnaya-s-akvariumom-srochno-IDmP8OQ.html</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Продам новую сувенирную черепаху из ОАЭ за 5500! Черепаха аккуратная и состоит из ракушек.</t>
+          <t>Срочно продам черепаху сухопутная с аквариумом. Причина продажи переезд в другой город. Срочно за 7000 с аквариумом, Цена договорная.</t>
         </is>
       </c>
     </row>
@@ -5836,38 +5843,65 @@
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-novuyu-suvenirnuyu-cherepahu-iz-oae-za-5500-IDkSLyU.html</t>
+        </is>
+      </c>
+      <c r="E188" s="4" t="inlineStr">
+        <is>
+          <t>Продам новую сувенирную черепаху из ОАЭ за 5500! Черепаха аккуратная и состоит из ракушек.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="40" customHeight="1">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>17 August 2022</t>
+        </is>
+      </c>
+      <c r="D189" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmPgGp.html</t>
         </is>
       </c>
-      <c r="E188" s="4" t="inlineStr">
+      <c r="E189" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху сухопутную 
 Село Кыргауылды</t>
         </is>
       </c>
     </row>
-    <row r="189" ht="40" customHeight="1">
-      <c r="A189" s="3" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C189" s="3" t="inlineStr">
+    <row r="190" ht="40" customHeight="1">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
         <is>
           <t>17 August 2022</t>
         </is>
       </c>
-      <c r="D189" s="4" t="inlineStr">
+      <c r="D190" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmPbYa.html</t>
         </is>
       </c>
-      <c r="E189" s="4" t="inlineStr">
+      <c r="E190" s="4" t="inlineStr">
         <is>
           <t>Продам сухопутную черепаху 
 Возраст: 3 года
@@ -5876,33 +5910,6 @@
         </is>
       </c>
     </row>
-    <row r="190" ht="40" customHeight="1">
-      <c r="A190" s="3" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C190" s="3" t="inlineStr">
-        <is>
-          <t>18 August 2022</t>
-        </is>
-      </c>
-      <c r="D190" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-monetu-iz-serebra-cherepaha-IDmmmH0.html</t>
-        </is>
-      </c>
-      <c r="E190" s="4" t="inlineStr">
-        <is>
-          <t>Продам  монету  из серебра "Черепаха " в отличном состоянии, сертификат имеется.</t>
-        </is>
-      </c>
-    </row>
     <row r="191" ht="40" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
@@ -5921,12 +5928,12 @@
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-IDmPqbI.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-monetu-iz-serebra-cherepaha-IDmmmH0.html</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>продам сухопутную черепаху. Ест овощи все</t>
+          <t>Продам  монету  из серебра "Черепаха " в отличном состоянии, сертификат имеется.</t>
         </is>
       </c>
     </row>
@@ -5948,12 +5955,12 @@
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-myagkie-igrushki-IDmof85.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-IDmPqbI.html</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>Черепаха в отличном состоянии, большая. Можно использовать как подушку, лежала для красоты, 3000 тг. Пикачу и Кити, то же как новые, чистые. По 1500 тг.</t>
+          <t>продам сухопутную черепаху. Ест овощи все</t>
         </is>
       </c>
     </row>
@@ -5975,12 +5982,12 @@
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/krasnouhie-cherepahi-IDmHljk.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-myagkie-igrushki-IDmof85.html</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухих черепах (2 самца) с аквариумом и фильтром! Нагревателем воды! Аквариум большой на 100 литров! Так же мостик и лампа для обогрева!</t>
+          <t>Черепаха в отличном состоянии, большая. Можно использовать как подушку, лежала для красоты, 3000 тг. Пикачу и Кити, то же как новые, чистые. По 1500 тг.</t>
         </is>
       </c>
     </row>
@@ -5992,22 +5999,22 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>живая черепаха</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>19 August 2022</t>
+          <t>18 August 2022</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/filtr-dlya-akvariuma-s-cherepahami-IDlAjZJ.html</t>
+          <t>https://olx.kz/d/obyavlenie/krasnouhie-cherepahi-IDmHljk.html</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>В продаже имеется фильтр для аквариумов с черепахами. По всем интересующим вопросам прошу звонить или писать в ватсап. Живу в районе рынка. Также смотрите другие мои объявления.</t>
+          <t>Продам красноухих черепах (2 самца) с аквариумом и фильтром! Нагревателем воды! Аквариум большой на 100 литров! Так же мостик и лампа для обогрева!</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6026,7 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>живая черепаха</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -6029,12 +6036,12 @@
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmPGQ1.html</t>
+          <t>https://olx.kz/d/obyavlenie/filtr-dlya-akvariuma-s-cherepahami-IDlAjZJ.html</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Черепаха не большого размера, в придачу идёт аквариум и грунт (Мальдивский песок), черепаха здоровая, ест овощи</t>
+          <t>В продаже имеется фильтр для аквариумов с черепахами. По всем интересующим вопросам прошу звонить или писать в ватсап. Живу в районе рынка. Также смотрите другие мои объявления.</t>
         </is>
       </c>
     </row>
@@ -6056,12 +6063,12 @@
       </c>
       <c r="D196" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhoyu-cherepahu-i-akvarium-IDmPPJp.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmPGQ1.html</t>
         </is>
       </c>
       <c r="E196" s="4" t="inlineStr">
         <is>
-          <t>Черепахе примерно года два, крупная. Продаю в связи с тем, что не могу уже содержать. Впридачу могу продать аквариум за 45.000. Если будете брать и черепаху, и аквариум, скину до 35.000.</t>
+          <t>Черепаха не большого размера, в придачу идёт аквариум и грунт (Мальдивский песок), черепаха здоровая, ест овощи</t>
         </is>
       </c>
     </row>
@@ -6083,12 +6090,12 @@
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-motoekipirovku-cherepaha-IDm1Opx.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhoyu-cherepahu-i-akvarium-IDmPPJp.html</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Мотоэкипировка остались шорты, наколенники и перчатки, в хорошем состоянии, размер XXL, ОДЕВАЛ НЕСКОЛЬКО РАЗ...</t>
+          <t>Черепахе примерно года два, крупная. Продаю в связи с тем, что не могу уже содержать. Впридачу могу продать аквариум за 45.000. Если будете брать и черепаху, и аквариум, скину до 35.000.</t>
         </is>
       </c>
     </row>
@@ -6110,12 +6117,12 @@
       </c>
       <c r="D198" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/zaschitnaya-cherepaha-thor-IDmPEvb.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-motoekipirovku-cherepaha-IDm1Opx.html</t>
         </is>
       </c>
       <c r="E198" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху Thor в хорошем состоянии, есть чуть жизненные потертости размер M-L</t>
+          <t>Мотоэкипировка остались шорты, наколенники и перчатки, в хорошем состоянии, размер XXL, ОДЕВАЛ НЕСКОЛЬКО РАЗ...</t>
         </is>
       </c>
     </row>
@@ -6137,12 +6144,12 @@
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/vodnye-cherepashk-prodam-IDmlAZT.html</t>
+          <t>https://olx.kz/d/obyavlenie/zaschitnaya-cherepaha-thor-IDmPEvb.html</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Продам двух черепах.по 10’000 каждая.черепахи водные.по вопросам звонить по номеру:87785881188</t>
+          <t>Продам черепаху Thor в хорошем состоянии, есть чуть жизненные потертости размер M-L</t>
         </is>
       </c>
     </row>
@@ -6159,15 +6166,42 @@
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
+          <t>19 August 2022</t>
+        </is>
+      </c>
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/vodnye-cherepashk-prodam-IDmlAZT.html</t>
+        </is>
+      </c>
+      <c r="E200" s="4" t="inlineStr">
+        <is>
+          <t>Продам двух черепах.по 10’000 каждая.черепахи водные.по вопросам звонить по номеру:87785881188</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="40" customHeight="1">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
           <t>20 August 2022</t>
         </is>
       </c>
-      <c r="D200" s="4" t="inlineStr">
+      <c r="D201" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/cherepahi-krasnouhie-IDmKFf8.html</t>
         </is>
       </c>
-      <c r="E200" s="4" t="inlineStr">
+      <c r="E201" s="4" t="inlineStr">
         <is>
           <t>Продам двух красноухих черепах (самец и самка), возраст 15 лет. Парой.
 Цена 15000 тг за 1. Самовывоз проспект Аль Фараби 21. 
@@ -6175,33 +6209,6 @@
         </is>
       </c>
     </row>
-    <row r="201" ht="40" customHeight="1">
-      <c r="A201" s="3" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>20 August 2022</t>
-        </is>
-      </c>
-      <c r="D201" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmG9dL.html</t>
-        </is>
-      </c>
-      <c r="E201" s="4" t="inlineStr">
-        <is>
-          <t>Продам сухопутную черепаху, очень активная, неприхотливое животное, питается растительностью, будет отличным подарком для ваших деток</t>
-        </is>
-      </c>
-    </row>
     <row r="202" ht="40" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
         <is>
@@ -6220,10 +6227,37 @@
       </c>
       <c r="D202" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmG9dL.html</t>
+        </is>
+      </c>
+      <c r="E202" s="4" t="inlineStr">
+        <is>
+          <t>Продам сухопутную черепаху, очень активная, неприхотливое животное, питается растительностью, будет отличным подарком для ваших деток</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="40" customHeight="1">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>20 August 2022</t>
+        </is>
+      </c>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/srochno-prodam-moped-IDmNOT0.html</t>
         </is>
       </c>
-      <c r="E202" s="4" t="inlineStr">
+      <c r="E203" s="4" t="inlineStr">
         <is>
           <t>Срочно  продам мопед 
 Peda Rocket  2022
@@ -6240,33 +6274,6 @@
         </is>
       </c>
     </row>
-    <row r="203" ht="40" customHeight="1">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>20 August 2022</t>
-        </is>
-      </c>
-      <c r="D203" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-dve-20000-tg-IDmHIP5.html</t>
-        </is>
-      </c>
-      <c r="E203" s="4" t="inlineStr">
-        <is>
-          <t>Продам красноухую черепаху. Одна большая 17-18 см. Второй маленький 7-8 см. Две черепахи стоит 10000 тг. Есть торг. Продаю аквариум 5000 тг. Есть торг. Номер телефона: 87027487150</t>
-        </is>
-      </c>
-    </row>
     <row r="204" ht="40" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
@@ -6285,12 +6292,12 @@
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-suhoputnaya-IDmQ1B0.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-krasnouhuyu-cherepahu-dve-20000-tg-IDmHIP5.html</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>Срочно продам сухопутную черепаху, цена 10 000 тг вместе с террариумом, Мальчик) 2-3 годика.Питается листьями для салата , капусткой , морковью. Шустрый) Продаю, так как  некому ухаживать за ним:(</t>
+          <t>Продам красноухую черепаху. Одна большая 17-18 см. Второй маленький 7-8 см. Две черепахи стоит 10000 тг. Есть торг. Продаю аквариум 5000 тг. Есть торг. Номер телефона: 87027487150</t>
         </is>
       </c>
     </row>
@@ -6312,12 +6319,12 @@
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/shlem-perchatki-ochki-dzhersi-cherepaha-IDmQ8Jd.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-suhoputnaya-IDmQ1B0.html</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Продам Шлем+перчатки+очки+джерси+черепаха, размер L</t>
+          <t>Срочно продам сухопутную черепаху, цена 10 000 тг вместе с террариумом, Мальчик) 2-3 годика.Питается листьями для салата , капусткой , морковью. Шустрый) Продаю, так как  некому ухаживать за ним:(</t>
         </is>
       </c>
     </row>
@@ -6339,12 +6346,12 @@
       </c>
       <c r="D206" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepashku-IDmQ1vA.html</t>
+          <t>https://olx.kz/d/obyavlenie/shlem-perchatki-ochki-dzhersi-cherepaha-IDmQ8Jd.html</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
         <is>
-          <t>Маленький, 1год 6 месяцев, сухопутная черепаха, ест мало, спокойный. В связи с переездом приходится продать.</t>
+          <t>Продам Шлем+перчатки+очки+джерси+черепаха, размер L</t>
         </is>
       </c>
     </row>
@@ -6366,12 +6373,12 @@
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/bashnya-dekor-dlya-akvariuma-IDlXnam.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepashku-IDmQ1vA.html</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Продам декор для аквариума,б/у. Высота 20 см. Возможен обмен на мостик для черепахи,мирных рыбок неонов. По всем вопросам обращайтесь на ватсап.</t>
+          <t>Маленький, 1год 6 месяцев, сухопутная черепаха, ест мало, спокойный. В связи с переездом приходится продать.</t>
         </is>
       </c>
     </row>
@@ -6393,12 +6400,12 @@
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-diski-original-IDmQ89o.html</t>
+          <t>https://olx.kz/d/obyavlenie/bashnya-dekor-dlya-akvariuma-IDlXnam.html</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>Продам диски оригинал "мелбер" черепаха диаметр15- 40 000 тысяч, вместе с шинами 50 000. Плюс запаска 5000. Диски не варенные раскатать, покрасить будет как новая. Общий за все 55000, отдельно ничего не продаю. В ОЛХ один такой диск продают за 25000 тыс.</t>
+          <t>Продам декор для аквариума,б/у. Высота 20 см. Возможен обмен на мостик для черепахи,мирных рыбок неонов. По всем вопросам обращайтесь на ватсап.</t>
         </is>
       </c>
     </row>
@@ -6420,10 +6427,37 @@
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-diski-original-IDmQ89o.html</t>
+        </is>
+      </c>
+      <c r="E209" s="4" t="inlineStr">
+        <is>
+          <t>Продам диски оригинал "мелбер" черепаха диаметр15- 40 000 тысяч, вместе с шинами 50 000. Плюс запаска 5000. Диски не варенные раскатать, покрасить будет как новая. Общий за все 55000, отдельно ничего не продаю. В ОЛХ один такой диск продают за 25000 тыс.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="40" customHeight="1">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>20 August 2022</t>
+        </is>
+      </c>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-knigi-IDkkzpT.html</t>
         </is>
       </c>
-      <c r="E209" s="4" t="inlineStr">
+      <c r="E210" s="4" t="inlineStr">
         <is>
           <t>Книги для взрослых, также для подростков. Жанров: романы, фантастика и драмы. Все в отличом состоянии. Обращаться в WhatsApp по номеру: 87021058969
 Имеются 2 книги от Джона Грина 
@@ -6433,28 +6467,28 @@
         </is>
       </c>
     </row>
-    <row r="210" ht="40" customHeight="1">
-      <c r="A210" s="3" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C210" s="3" t="inlineStr">
+    <row r="211" ht="40" customHeight="1">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
         <is>
           <t>20 August 2022</t>
         </is>
       </c>
-      <c r="D210" s="4" t="inlineStr">
+      <c r="D211" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-mototsikl-enduro-b8-2019g-v-300kubov-v-otlichnom-sostoyanii-IDmxZXp.html</t>
         </is>
       </c>
-      <c r="E210" s="4" t="inlineStr">
+      <c r="E211" s="4" t="inlineStr">
         <is>
           <t>Продам мотоцикл ENDURO B8 2019г.в. 300кубов
 Покупался в 2020г. С мотосалона за 878к
@@ -6471,28 +6505,28 @@
         </is>
       </c>
     </row>
-    <row r="211" ht="40" customHeight="1">
-      <c r="A211" s="3" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="inlineStr">
+    <row r="212" ht="40" customHeight="1">
+      <c r="A212" s="3" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
         <is>
           <t>среднеазиатская черепаха</t>
         </is>
       </c>
-      <c r="C211" s="3" t="inlineStr">
+      <c r="C212" s="3" t="inlineStr">
         <is>
           <t>21 August 2022</t>
         </is>
       </c>
-      <c r="D211" s="4" t="inlineStr">
+      <c r="D212" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-sredneaziatskaya-cherepaha-IDmmd8S.html</t>
         </is>
       </c>
-      <c r="E211" s="4" t="inlineStr">
+      <c r="E212" s="4" t="inlineStr">
         <is>
           <t>Среднеазиатская черепаха это дикое животное, не предназначенное для жизни в домашних условиях. 
 Чтобы черепаха хотя бы не болела у вас дома, ей нужна специальная УФ лампа и лампа для прогрева, а также правильное питание, витамины и кальций. 
@@ -6502,33 +6536,6 @@
         </is>
       </c>
     </row>
-    <row r="212" ht="40" customHeight="1">
-      <c r="A212" s="3" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C212" s="3" t="inlineStr">
-        <is>
-          <t>21 August 2022</t>
-        </is>
-      </c>
-      <c r="D212" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmPLel.html</t>
-        </is>
-      </c>
-      <c r="E212" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху сухопутная . К еде не привередливый . Мальчик</t>
-        </is>
-      </c>
-    </row>
     <row r="213" ht="40" customHeight="1">
       <c r="A213" s="3" t="inlineStr">
         <is>
@@ -6547,38 +6554,65 @@
       </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmPLel.html</t>
+        </is>
+      </c>
+      <c r="E213" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху сухопутная . К еде не привередливый . Мальчик</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="40" customHeight="1">
+      <c r="A214" s="3" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>21 August 2022</t>
+        </is>
+      </c>
+      <c r="D214" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/cherepaha-prodam-cherepahu-IDmacNw.html</t>
         </is>
       </c>
-      <c r="E213" s="4" t="inlineStr">
+      <c r="E214" s="4" t="inlineStr">
         <is>
           <t>Продам черепах. Большая 3000тг
 Средняя 4000тг. В еде не прихотливы. Едят траву, овощи, фрукты</t>
         </is>
       </c>
     </row>
-    <row r="214" ht="40" customHeight="1">
-      <c r="A214" s="3" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C214" s="3" t="inlineStr">
+    <row r="215" ht="40" customHeight="1">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
         <is>
           <t>21 August 2022</t>
         </is>
       </c>
-      <c r="D214" s="4" t="inlineStr">
+      <c r="D215" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-yamaha-IDmOMbm.html</t>
         </is>
       </c>
-      <c r="E214" s="4" t="inlineStr">
+      <c r="E215" s="4" t="inlineStr">
         <is>
           <t>Продам новую моточерепаху Yamaha.
 40 000 тг
@@ -6586,33 +6620,6 @@
         </is>
       </c>
     </row>
-    <row r="215" ht="40" customHeight="1">
-      <c r="A215" s="3" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="inlineStr">
-        <is>
-          <t>21 August 2022</t>
-        </is>
-      </c>
-      <c r="D215" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-3-000-tege-IDmQbxt.html</t>
-        </is>
-      </c>
-      <c r="E215" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху сухопутную 3 000 теңге. Кушает огурцы и капусту. Телефон:+7 777 545 99 03.</t>
-        </is>
-      </c>
-    </row>
     <row r="216" ht="40" customHeight="1">
       <c r="A216" s="3" t="inlineStr">
         <is>
@@ -6631,10 +6638,37 @@
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-3-000-tege-IDmQbxt.html</t>
+        </is>
+      </c>
+      <c r="E216" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху сухопутную 3 000 теңге. Кушает огурцы и капусту. Телефон:+7 777 545 99 03.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="40" customHeight="1">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>21 August 2022</t>
+        </is>
+      </c>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-akvarium-s-suhoputnoy-cherepahoy-IDmQdZt.html</t>
         </is>
       </c>
-      <c r="E216" s="4" t="inlineStr">
+      <c r="E217" s="4" t="inlineStr">
         <is>
           <t>Продам черепаху сухопутную,мальчик.Хорошо есть огурцы, тыкву ,перец,одуванчики,морковь
 Так же продам аквариум,лампу,прибор для контроля температуры.
@@ -6645,33 +6679,6 @@
         </is>
       </c>
     </row>
-    <row r="217" ht="40" customHeight="1">
-      <c r="A217" s="3" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C217" s="3" t="inlineStr">
-        <is>
-          <t>21 August 2022</t>
-        </is>
-      </c>
-      <c r="D217" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-svinorylaya-IDkP07k.html</t>
-        </is>
-      </c>
-      <c r="E217" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху свинорылую, пресноводная. Звонить, на смс неотвечаю. Самовывоз с Тастак. Для больших аквариумов. Так же имеется скат моторо, самец 120000 размер 40-45см видео по запросу</t>
-        </is>
-      </c>
-    </row>
     <row r="218" ht="40" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
@@ -6690,10 +6697,37 @@
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-svinorylaya-IDkP07k.html</t>
+        </is>
+      </c>
+      <c r="E218" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху свинорылую, пресноводная. Звонить, на смс неотвечаю. Самовывоз с Тастак. Для больших аквариумов. Так же имеется скат моторо, самец 120000 размер 40-45см видео по запросу</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="40" customHeight="1">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>21 August 2022</t>
+        </is>
+      </c>
+      <c r="D219" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmoyuR.html</t>
         </is>
       </c>
-      <c r="E218" s="4" t="inlineStr">
+      <c r="E219" s="4" t="inlineStr">
         <is>
           <t>ЗВОНИТЬ ПИСАТЬ-8 708 983 87 40
 Продам малыша сухопутной черепахи 
@@ -6703,61 +6737,34 @@
         </is>
       </c>
     </row>
-    <row r="219" ht="40" customHeight="1">
-      <c r="A219" s="3" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="B219" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C219" s="3" t="inlineStr">
+    <row r="220" ht="40" customHeight="1">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
         <is>
           <t>21 August 2022</t>
         </is>
       </c>
-      <c r="D219" s="4" t="inlineStr">
+      <c r="D220" s="4" t="inlineStr">
         <is>
           <t>https://olx.kz/d/obyavlenie/prodam-zaschitu-IDjPT91.html</t>
         </is>
       </c>
-      <c r="E219" s="4" t="inlineStr">
+      <c r="E220" s="4" t="inlineStr">
         <is>
           <t>Продам защиту (черепаха) 
 Состояние отличное</t>
         </is>
       </c>
     </row>
-    <row r="220" ht="40" customHeight="1">
-      <c r="A220" s="3" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="B220" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C220" s="3" t="inlineStr">
-        <is>
-          <t>21 August 2022</t>
-        </is>
-      </c>
-      <c r="D220" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-disk-bmv-v-horoshem-sostoyaniy-IDmQb9Z.html</t>
-        </is>
-      </c>
-      <c r="E220" s="4" t="inlineStr">
-        <is>
-          <t>Диски 16 стиль Черепаха без варки в родном краске. Один диск на запаску</t>
-        </is>
-      </c>
-    </row>
     <row r="221" ht="40" customHeight="1">
       <c r="A221" s="3" t="inlineStr">
         <is>
@@ -6766,22 +6773,22 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>степная черепаха</t>
+          <t>продам черепаху</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>22 August 2022</t>
+          <t>21 August 2022</t>
         </is>
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-klevuyu-domashnyuyu-cherepahu-IDkkx0i.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-disk-bmv-v-horoshem-sostoyaniy-IDmQb9Z.html</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Продается обычная степная черепашка,любит листья салата,одуванчика,морковь ,капусту.  Отличное домашнее животное. Ручные черепашки ,людей не боятся. Есть мальчики и девочки. Находимся  нижней части города. Возможно доставка за отдельную плату. МАЛЕНЬКАЯ ЧЕРЕПАХА 10 000ТГ. СРЕДЕЯЯ 7000ТГ. БОЛЬШАЯ 5000тг.</t>
+          <t>Диски 16 стиль Черепаха без варки в родном краске. Один диск на запаску</t>
         </is>
       </c>
     </row>
@@ -6803,10 +6810,37 @@
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-klevuyu-domashnyuyu-cherepahu-IDkkx0i.html</t>
+        </is>
+      </c>
+      <c r="E222" s="4" t="inlineStr">
+        <is>
+          <t>Продается обычная степная черепашка,любит листья салата,одуванчика,морковь ,капусту.  Отличное домашнее животное. Ручные черепашки ,людей не боятся. Есть мальчики и девочки. Находимся  нижней части города. Возможно доставка за отдельную плату. МАЛЕНЬКАЯ ЧЕРЕПАХА 10 000ТГ. СРЕДЕЯЯ 7000ТГ. БОЛЬШАЯ 5000тг.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="40" customHeight="1">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>степная черепаха</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>22 August 2022</t>
+        </is>
+      </c>
+      <c r="D223" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/srochno-prodam-cherepahu-cherepaha-domashnyaya-IDmccCo.html</t>
         </is>
       </c>
-      <c r="E222" s="4" t="inlineStr">
+      <c r="E223" s="4" t="inlineStr">
         <is>
           <t>Домашняя степная маленькая черепаха. Довольно активная. питается травой, одуванчиками,огурцами,морковкой,листьями салата.
 отличный подарок для ребенка,да и в общем домашнее животное)
@@ -6815,33 +6849,6 @@
         </is>
       </c>
     </row>
-    <row r="223" ht="40" customHeight="1">
-      <c r="A223" s="3" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="inlineStr">
-        <is>
-          <t>среднеазиатская черепаха</t>
-        </is>
-      </c>
-      <c r="C223" s="3" t="inlineStr">
-        <is>
-          <t>22 August 2022</t>
-        </is>
-      </c>
-      <c r="D223" s="4" t="inlineStr">
-        <is>
-          <t>https://olx.kz/d/obyavlenie/cherepaha-sredneaziatskaya-suhoputnaya-IDmQEL1.html</t>
-        </is>
-      </c>
-      <c r="E223" s="4" t="inlineStr">
-        <is>
-          <t>Продам среднеазиатскую сухопутную черепаху, 3 года. Цена 5000 тг. Питается овощами.</t>
-        </is>
-      </c>
-    </row>
     <row r="224" ht="40" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
@@ -6850,7 +6857,7 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>продам черепаху</t>
+          <t>среднеазиатская черепаха</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6860,12 +6867,12 @@
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhaputnuyu-IDmQDPL.html</t>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-sredneaziatskaya-suhoputnaya-IDmQEL1.html</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
         <is>
-          <t>Купать один раз в неделю шёточкой кармить капустай также отдадим корм специальный.</t>
+          <t>Продам среднеазиатскую сухопутную черепаху, 3 года. Цена 5000 тг. Питается овощами.</t>
         </is>
       </c>
     </row>
@@ -6887,12 +6894,12 @@
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmQrXp.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhaputnuyu-IDmQDPL.html</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху сухопутную. Не привередливая  ест кожуру яблок, марковки. Капусту не желательно</t>
+          <t>Купать один раз в неделю шёточкой кармить капустай также отдадим корм специальный.</t>
         </is>
       </c>
     </row>
@@ -6914,12 +6921,12 @@
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmQwxt.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmQrXp.html</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
         <is>
-          <t>Продам маленькую сухопутную черепаху! Кушает траву, отдельно корм покупать не нужно)</t>
+          <t>Продам черепаху сухопутную. Не привередливая  ест кожуру яблок, марковки. Капусту не желательно</t>
         </is>
       </c>
     </row>
@@ -6941,12 +6948,12 @@
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-s-akvariumov-i-lampoy-IDmQBsJ.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhoputnuyu-IDmQwxt.html</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху Налу 6 лет с аквариумов и лампой. Неприхотливый домашний питомец.</t>
+          <t>Продам маленькую сухопутную черепаху! Кушает траву, отдельно корм покупать не нужно)</t>
         </is>
       </c>
     </row>
@@ -6968,12 +6975,12 @@
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-IDmQAuH.html</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-s-akvariumov-i-lampoy-IDmQBsJ.html</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
         <is>
-          <t>Продам аквариум, большой, жили две черепахи, по всем вопросам обращаться вацап 87779958799</t>
+          <t>Продам черепаху Налу 6 лет с аквариумов и лампой. Неприхотливый домашний питомец.</t>
         </is>
       </c>
     </row>
@@ -6995,43 +7002,43 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-IDmQAuH.html</t>
+        </is>
+      </c>
+      <c r="E229" s="4" t="inlineStr">
+        <is>
+          <t>Продам аквариум, большой, жили две черепахи, по всем вопросам обращаться вацап 87779958799</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="40" customHeight="1">
+      <c r="A230" s="3" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>22 August 2022</t>
+        </is>
+      </c>
+      <c r="D230" s="4" t="inlineStr">
+        <is>
           <t>https://olx.kz/d/obyavlenie/prodam-rychagi-audi-a6-2-4-IDmmykg.html</t>
         </is>
       </c>
-      <c r="E229" s="4" t="inlineStr">
+      <c r="E230" s="4" t="inlineStr">
         <is>
           <t>Рычаги от черепахи 1997 обьем 2.4 передний привод
 Новые рычаги!!!</t>
         </is>
       </c>
     </row>
-    <row r="230" ht="40" customHeight="1">
-      <c r="A230" s="3" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="B230" s="3" t="inlineStr">
-        <is>
-          <t>продам черепаху</t>
-        </is>
-      </c>
-      <c r="C230" s="3" t="inlineStr">
-        <is>
-          <t>22 August 2022</t>
-        </is>
-      </c>
-      <c r="D230" s="4" t="inlineStr">
-        <is>
-          <t>https://market.kz/a/prodam-cherepahu-108191355/</t>
-        </is>
-      </c>
-      <c r="E230" s="4" t="inlineStr">
-        <is>
-          <t>Продам черепаху</t>
-        </is>
-      </c>
-    </row>
     <row r="231" ht="40" customHeight="1">
       <c r="A231" s="3" t="inlineStr">
         <is>
@@ -7050,12 +7057,12 @@
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-krasnouhuyu-vodyanuyu-cherepahu-108148074/</t>
+          <t>https://market.kz/a/prodam-cherepahu-108191355/</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую водяную черепаху</t>
+          <t>Продам черепаху</t>
         </is>
       </c>
     </row>
@@ -7077,12 +7084,12 @@
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-suhoputnuyu-cherepahu-108081171/</t>
+          <t>https://market.kz/a/prodam-krasnouhuyu-vodyanuyu-cherepahu-108148074/</t>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>Продам сухопутную черепаху.</t>
+          <t>Продам красноухую водяную черепаху</t>
         </is>
       </c>
     </row>
@@ -7104,12 +7111,12 @@
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-kostyum-cherepahi-dlya-prazdnika-105864094/</t>
+          <t>https://market.kz/a/prodam-suhoputnuyu-cherepahu-108081171/</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Продам костюм черепахи для праздника</t>
+          <t>Продам сухопутную черепаху.</t>
         </is>
       </c>
     </row>
@@ -7131,12 +7138,12 @@
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-cherepahu-108045132/</t>
+          <t>https://market.kz/a/prodam-kostyum-cherepahi-dlya-prazdnika-105864094/</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху</t>
+          <t>Продам костюм черепахи для праздника</t>
         </is>
       </c>
     </row>
@@ -7158,12 +7165,12 @@
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/cherepaha-108182972/</t>
+          <t>https://market.kz/a/prodam-cherepahu-108045132/</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Черепаха</t>
+          <t>Продам черепаху</t>
         </is>
       </c>
     </row>
@@ -7185,12 +7192,12 @@
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-morskuyu-cherepahu-105864704/</t>
+          <t>https://market.kz/a/cherepaha-108182972/</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>Морская черепашка</t>
+          <t>Черепаха</t>
         </is>
       </c>
     </row>
@@ -7212,12 +7219,12 @@
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/terrarium-dlya-melkih-jivotnyih-107355735/</t>
+          <t>https://market.kz/a/prodam-morskuyu-cherepahu-105864704/</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Террариум для мелких животных</t>
+          <t>Морская черепашка</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7246,12 @@
       </c>
       <c r="D238" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/jivotnyie-ot-firmyi-collecta-schleich-107708784/</t>
+          <t>https://market.kz/a/terrarium-dlya-melkih-jivotnyih-107355735/</t>
         </is>
       </c>
       <c r="E238" s="4" t="inlineStr">
         <is>
-          <t>Животные от фирмы Collecta Schleich</t>
+          <t>Террариум для мелких животных</t>
         </is>
       </c>
     </row>
@@ -7266,12 +7273,12 @@
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-cherepahu-108191355/?from_similar=1</t>
+          <t>https://market.kz/a/jivotnyie-ot-firmyi-collecta-schleich-107708784/</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху</t>
+          <t>Животные от фирмы Collecta Schleich</t>
         </is>
       </c>
     </row>
@@ -7293,12 +7300,12 @@
       </c>
       <c r="D240" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-krasnouhuyu-vodyanuyu-cherepahu-108148074/?from_similar=1</t>
+          <t>https://market.kz/a/prodam-cherepahu-108191355/?from_similar=1</t>
         </is>
       </c>
       <c r="E240" s="4" t="inlineStr">
         <is>
-          <t>Продам красноухую водяную черепаху</t>
+          <t>Продам черепаху</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7327,12 @@
       </c>
       <c r="D241" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-suhoputnuyu-cherepahu-108081171/?from_similar=1</t>
+          <t>https://market.kz/a/prodam-krasnouhuyu-vodyanuyu-cherepahu-108148074/?from_similar=1</t>
         </is>
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Продам сухопутную черепаху.</t>
+          <t>Продам красноухую водяную черепаху</t>
         </is>
       </c>
     </row>
@@ -7347,12 +7354,12 @@
       </c>
       <c r="D242" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-kostyum-cherepahi-dlya-prazdnika-105864094/?from_similar=1</t>
+          <t>https://market.kz/a/prodam-suhoputnuyu-cherepahu-108081171/?from_similar=1</t>
         </is>
       </c>
       <c r="E242" s="4" t="inlineStr">
         <is>
-          <t>Продам костюм черепахи для праздника</t>
+          <t>Продам сухопутную черепаху.</t>
         </is>
       </c>
     </row>
@@ -7374,12 +7381,12 @@
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-cherepahu-108045132/?from_similar=1</t>
+          <t>https://market.kz/a/prodam-kostyum-cherepahi-dlya-prazdnika-105864094/?from_similar=1</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Продам черепаху</t>
+          <t>Продам костюм черепахи для праздника</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7408,12 @@
       </c>
       <c r="D244" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/cherepaha-108182972/?from_similar=1</t>
+          <t>https://market.kz/a/prodam-cherepahu-108045132/?from_similar=1</t>
         </is>
       </c>
       <c r="E244" s="4" t="inlineStr">
         <is>
-          <t>Черепаха</t>
+          <t>Продам черепаху</t>
         </is>
       </c>
     </row>
@@ -7428,12 +7435,12 @@
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/prodam-morskuyu-cherepahu-105864704/?from_similar=1</t>
+          <t>https://market.kz/a/cherepaha-108182972/?from_similar=1</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Морская черепашка</t>
+          <t>Черепаха</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7462,12 @@
       </c>
       <c r="D246" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/terrarium-dlya-melkih-jivotnyih-107355735/?from_similar=1</t>
+          <t>https://market.kz/a/prodam-morskuyu-cherepahu-105864704/?from_similar=1</t>
         </is>
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>Террариум для мелких животных</t>
+          <t>Морская черепашка</t>
         </is>
       </c>
     </row>
@@ -7482,12 +7489,12 @@
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>https://olx.kz/d/obyavlenie/prodam-pushku-kross-enduro-IDmQF92.html</t>
+          <t>https://market.kz/a/terrarium-dlya-melkih-jivotnyih-107355735/?from_similar=1</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Всем доброго времени суток!!! Продам полноценный кросс/эндуро мотоцикл RegulMoto 250 кубов. Мотоцикл просто пушка!!! Состояние нового, ещё на обкатке. Прошел 20 моточасов. Байк полностью подготовлен. Подвеска вся прокачана и настроена.(настроенна в данный момент для прыжков, прыгал на трамплинах). Прогрессия все смазано. Фильтры обслуженны. Масло заменнино. Заливал только Motul. Все агрегаты смазаны. Стоит легендарный двигатель FMM 172.(движок огонь). Карб Nibbi 30. Внешне копия КТМ. Дополнительно установлены поворотники, задний подкрылок, стоп сигнал, лягушка на лапку тормоза ножного задний, также переднего. Дальний, ближний свет, габариты.(сделал для того, что ездил по городу). Все можно быстро снять по желанию. А также зеркала заднего вида.  В комплекте к байку отдам: очеститель цепи, смазку цепи и щётку для очищения цепи. Шлем эндуро Ataki, две пары очков fly raising c синей тонировкой и Hohner прозрачные. Мотоботинки кроcc Thor, перчатки Scoyco, черепаха aserbis, Джерси AlloyMx Fox. Смотрите фото. За байк не стыдно. Приезжайте, смотри, пробуйте. Звоните, пишите отвечу на любы вопросы. Реальному покупателю торг!!! И да... Брат сколько прёт максимально? Я не знаю в отсечку не давил, так как обкатка. От байка не избовляюсь, я просто переезжаю, а с собой возможности забрать к сожелению нет.</t>
+          <t>Террариум для мелких животных</t>
         </is>
       </c>
     </row>
@@ -7509,12 +7516,1024 @@
       </c>
       <c r="D248" s="4" t="inlineStr">
         <is>
-          <t>https://market.kz/a/jivotnyie-ot-firmyi-collecta-schleich-107708784/?from_similar=1</t>
+          <t>https://olx.kz/d/obyavlenie/prodam-pushku-kross-enduro-IDmQF92.html</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t>Животные от фирмы Collecta Schleich</t>
+          <t>Всем доброго времени суток!!! Продам полноценный кросс/эндуро мотоцикл RegulMoto 250 кубов. Мотоцикл просто пушка!!! Состояние нового, ещё на обкатке. Прошел 20 моточасов. Байк полностью подготовлен. Подвеска вся прокачана и настроена.(настроенна в данный момент для прыжков, прыгал на трамплинах). Прогрессия все смазано. Фильтры обслуженны. Масло заменнино. Заливал только Motul. Все агрегаты смазаны. Стоит легендарный двигатель FMM 172.(движок огонь). Карб Nibbi 30. Внешне копия КТМ. Дополнительно установлены поворотники, задний подкрылок, стоп сигнал, лягушка на лапку тормоза ножного задний, также переднего. Дальний, ближний свет, габариты.(сделал для того, что ездил по городу). Все можно быстро снять по желанию. А также зеркала заднего вида.  В комплекте к байку отдам: очеститель цепи, смазку цепи и щётку для очищения цепи. Шлем эндуро Ataki, две пары очков fly raising c синей тонировкой и Hohner прозрачные. Мотоботинки кроcc Thor, перчатки Scoyco, черепаха aserbis, Джерси AlloyMx Fox. Смотрите фото. За байк не стыдно. Приезжайте, смотри, пробуйте. Звоните, пишите отвечу на любы вопросы. Реальному покупателю торг!!! И да... Брат сколько прёт максимально? Я не знаю в отсечку не давил, так как обкатка. От байка не избовляюсь, я просто переезжаю, а с собой возможности забрать к сожелению нет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249" ht="40" customHeight="1">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D249" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/roga-saygaka-dve-pary-IDmQR2z.html</t>
+        </is>
+      </c>
+      <c r="E249" s="4" t="inlineStr">
+        <is>
+          <t>Продаю две пары рога сайгака 
+36 см которые светлые,
+Которые украсят ваш дом
+Юго-восток республики 18
+Первая пара сделана для военного человека.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250" ht="40" customHeight="1">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>живая черепаха</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D250" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmQRKy.html</t>
+        </is>
+      </c>
+      <c r="E250" s="4" t="inlineStr">
+        <is>
+          <t>Живая черепаха , милая не капризная.
+Милый питомец . Обращаться по номеру телефона 87056535628</t>
+        </is>
+      </c>
+    </row>
+    <row r="251" ht="40" customHeight="1">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D251" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-IDmQIi1.html</t>
+        </is>
+      </c>
+      <c r="E251" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепашку. уход за черепахой не станет для ее владельца обременительной ношей, если он ответственно подойдет к этому. В целом уход за сухопутной черепахой «зиждется» на трех ключевых моментах: гигиене, обустройстве места обитания и кормлении.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252" ht="40" customHeight="1">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D252" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-suhaputni-IDmQQv2.html</t>
+        </is>
+      </c>
+      <c r="E252" s="4" t="inlineStr">
+        <is>
+          <t>Мальчик не кусается маленький его зовут Вася и он пугается сама кушает можно без руки и с рук кушет</t>
+        </is>
+      </c>
+    </row>
+    <row r="253" ht="40" customHeight="1">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D253" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-cherepahu-s-shtanami-IDmQJm7.html</t>
+        </is>
+      </c>
+      <c r="E253" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху с штанами штаны от от пит байка  черепаха в хорошем состоянии обмен интересует</t>
+        </is>
+      </c>
+    </row>
+    <row r="254" ht="40" customHeight="1">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmQIAE.html</t>
+        </is>
+      </c>
+      <c r="E254" s="4" t="inlineStr">
+        <is>
+          <t>Продам сухопутную черепаху. Ест всё: помидоры, огурцы, капусту, листья салата, траву.
+Продам вместе с аквариумом и грунтом.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255" ht="40" customHeight="1">
+      <c r="A255" s="3" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D255" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-suhoputnaya-IDmQKll.html</t>
+        </is>
+      </c>
+      <c r="E255" s="4" t="inlineStr">
+        <is>
+          <t>Срочно!!! Продам сухопутную черепаху. Уход за черепахой хороший: корм, лампы, кальций, купание.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256" ht="40" customHeight="1">
+      <c r="A256" s="3" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-akvarium-IDmEbtf.html</t>
+        </is>
+      </c>
+      <c r="E256" s="4" t="inlineStr">
+        <is>
+          <t>Продам аквариум 150литров с мостиком для черепахи.Цена 20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="257" ht="40" customHeight="1">
+      <c r="A257" s="3" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D257" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-s-akvariumom-IDmQIA6.html</t>
+        </is>
+      </c>
+      <c r="E257" s="4" t="inlineStr">
+        <is>
+          <t>Продам Красноухую черепашку с большим аквариумом в связи с переездом.Писать на ватсапп</t>
+        </is>
+      </c>
+    </row>
+    <row r="258" ht="40" customHeight="1">
+      <c r="A258" s="3" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="inlineStr">
+        <is>
+          <t>23 August 2022</t>
+        </is>
+      </c>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-zapchasti-ot-audi-IDlBpz0.html</t>
+        </is>
+      </c>
+      <c r="E258" s="4" t="inlineStr">
+        <is>
+          <t>Продам запчасти от Ауди А 6. с 5кузов(черепаха). по всем вопросам обращаться по телефону..</t>
+        </is>
+      </c>
+    </row>
+    <row r="259" ht="40" customHeight="1">
+      <c r="A259" s="3" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D259" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-malenkuyu-cherepahu-IDmRaCL.html</t>
+        </is>
+      </c>
+      <c r="E259" s="4" t="inlineStr">
+        <is>
+          <t>Продам маленькую сухопутную черепаху,ест капусту и траву больше всего любит траву</t>
+        </is>
+      </c>
+    </row>
+    <row r="260" ht="40" customHeight="1">
+      <c r="A260" s="3" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B260" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-2-cherepahi-IDmR51B.html</t>
+        </is>
+      </c>
+      <c r="E260" s="4" t="inlineStr">
+        <is>
+          <t>2 красноухие черепахи по 17см одна 3000тг, оба 6000тг.
+Писать на ватсап номер: +7 776 487 7447</t>
+        </is>
+      </c>
+    </row>
+    <row r="261" ht="40" customHeight="1">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D261" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-suhoputnaya-IDmReC8.html</t>
+        </is>
+      </c>
+      <c r="E261" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху возраст 6 месяцев.Точно такая как на фото. Очень подвижная и быстрая для черепахи).Продаем в связи с ненадобностью.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262" ht="40" customHeight="1">
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D262" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-amfibiya-IDmR2Y8.html</t>
+        </is>
+      </c>
+      <c r="E262" s="4" t="inlineStr">
+        <is>
+          <t>Продам молодую красноухую черепаху,вместе с аквариумом.Веселая,подвижная,неприхотливая в еде и уходе. Живет и в воде и на суше.Хороший подарок для детей. Возможна доставка.Цена 14000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263" ht="40" customHeight="1">
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D263" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-motoekipirovku-IDmR5SW.html</t>
+        </is>
+      </c>
+      <c r="E263" s="4" t="inlineStr">
+        <is>
+          <t>Продам мотоэкипировку в хорошем состоянии: шлем, защитный жилет(черепаха), перчатки.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264" ht="40" customHeight="1">
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D264" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-ayfon-8-64gb-IDmReg6.html</t>
+        </is>
+      </c>
+      <c r="E264" s="4" t="inlineStr">
+        <is>
+          <t>Проадам айфон 8 64gb
+Сост отлично без минус 
+Отпечатки все Работаеть 
+Экран оригинал
+Акумулятор 75%
+Комплекте док, шнур, чехол, стекло черепаха
+Торг есть</t>
+        </is>
+      </c>
+    </row>
+    <row r="265" ht="40" customHeight="1">
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D265" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/srochno-vaz-2108-v-srednim-sostoyaniy-IDmR7dm.html</t>
+        </is>
+      </c>
+      <c r="E265" s="4" t="inlineStr">
+        <is>
+          <t>Срочно ПРОДАМ Ваз 2108 черепаха не работает требуется ремонт , в остальном в хорошем состояний! Подробнее 87006970351</t>
+        </is>
+      </c>
+    </row>
+    <row r="266" ht="40" customHeight="1">
+      <c r="A266" s="3" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>24 August 2022</t>
+        </is>
+      </c>
+      <c r="D266" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/nastoyka-zmeinyy-napitok-10-let-vyderzhki-tsena-7000-IDmR87j.html</t>
+        </is>
+      </c>
+      <c r="E266" s="4" t="inlineStr">
+        <is>
+          <t>Когда дело касается здоровья ?! никаких денег не жалко!Для старшего поколения особенно!! для выздоровления и поднятия иммунитета!!! Единственная в КЗ с 10 летней выдержкой !
+Продам 10 летнию Настойку из Змеи/ Геккона /Черепахи / Женьшеня/ Линьчжи/ Конопли 
+Цена 7000$
+Действие настойки
+характеризуются колоссальной пользой для организма. Причем их можно использовать с разными целями:
+Косметологический эффект – экспериментальным путем было выяснено, что препарат регулирует секрецию кожного жира, способствует замедленной выработке меланина в коже, имеет эффект успокоения.
+При употреблении данного средства можно заметить преображение кожи. Она приобретает здоровый блеск, становится более нежной, исчезают мелкие морщинки, веснушки.
+Замедление процесса старения – настойке присущи антиоксидантные свойства, за счет чего в крови значительно сокращается количество переокисленных жиров. При постоянном употреблении средства можно замедлить общий процесс старения.
+Противоаллергические свойства – так как экстракт способствует улучшению иммунитета, внутренней секреции, можно облегчить либо вообще устранить аллергию.
+Улучшение умственной деятельности – жирные кислоты, содержащиеся в продукте, очень важны для клеток головного мозга. При постоянном употреблении настойки со змеей можно активизировать умственную деятельность, улучшить работу памяти.
+Избавление от хронической усталости – препарат увеличивает общее количество энергии в организме, что приводит к большей активности и работоспособности всего организма.
+Улучшение иммунной системы – при употреблении спиртового бальзама происходит стимуляция выработки антител, улучшается иммунитет (клеточный, гуморальный), предотвращаются разнообразные заболевания.
+Цена адекватная так как продают 7 лет выдержки в два раза дороже , Для ценителей здоровья !</t>
+        </is>
+      </c>
+    </row>
+    <row r="267" ht="40" customHeight="1">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>рога сайгака</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D267" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/roga-saygak-roga-saygak-IDmRivd.html</t>
+        </is>
+      </c>
+      <c r="E267" s="4" t="inlineStr">
+        <is>
+          <t>Продам рога сайгак звоните в удобное для вас время 
+Доставка по регионам Казахстана
+Цена за пару</t>
+        </is>
+      </c>
+    </row>
+    <row r="268" ht="40" customHeight="1">
+      <c r="A268" s="3" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D268" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-IDmRlL4.html</t>
+        </is>
+      </c>
+      <c r="E268" s="4" t="inlineStr">
+        <is>
+          <t>Продам   Сухопутную  черепаха ест  капусту.   траву.   Не прихотливая 
+...</t>
+        </is>
+      </c>
+    </row>
+    <row r="269" ht="40" customHeight="1">
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D269" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/suhoputnaya-cherepaha-IDmRm6o.html</t>
+        </is>
+      </c>
+      <c r="E269" s="4" t="inlineStr">
+        <is>
+          <t>Продам сухопутную черепаху вместе с ее террариумом. Неприхотливое животное. Ест фрукты и траву. Уход минимальный</t>
+        </is>
+      </c>
+    </row>
+    <row r="270" ht="40" customHeight="1">
+      <c r="A270" s="3" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D270" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/cherepaha-suhaputnaya-IDmj2o2.html</t>
+        </is>
+      </c>
+      <c r="E270" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепах сухапутных .
+домашних
+По всем вопросом пишите или звоните по ном тел.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271" ht="40" customHeight="1">
+      <c r="A271" s="3" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D271" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-roliki-s-chehlom-IDmRilQ.html</t>
+        </is>
+      </c>
+      <c r="E271" s="4" t="inlineStr">
+        <is>
+          <t>Продам ролики. В комплекте чехол, защитные черепахи, и коленники. Состояние отличное. Для детей 12-18. 
+Все колёсики крутятся и светятся.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272" ht="40" customHeight="1">
+      <c r="A272" s="3" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C272" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D272" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/kotyata-meyn-kun-okras-cherepaha-IDmRgF1.html</t>
+        </is>
+      </c>
+      <c r="E272" s="4" t="inlineStr">
+        <is>
+          <t>Продам котят породы Мейн-кун. К лотку приученны
+Уже все кушают самостоятельно. Две девочки и один мальчик 1.5 месяца.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273" ht="40" customHeight="1">
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D273" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-IDmRgnl.html</t>
+        </is>
+      </c>
+      <c r="E273" s="4" t="inlineStr">
+        <is>
+          <t>Продам красноухую водную черепашку, ручная. В связи с переездом, в добрые руки. Писать сюда или ватсап. Находимся на 45ой. Если вы в городе можем привезти)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274" ht="40" customHeight="1">
+      <c r="A274" s="3" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D274" s="4" t="inlineStr">
+        <is>
+          <t>https://market.kz/a/kollektsionnyiy-zmeinyiy-napitok-10-let-vyiderjki-108206576/</t>
+        </is>
+      </c>
+      <c r="E274" s="4" t="inlineStr">
+        <is>
+          <t>Коллекционный Змеиный напиток 10 лет выдержки</t>
+        </is>
+      </c>
+    </row>
+    <row r="275" ht="40" customHeight="1">
+      <c r="A275" s="3" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="inlineStr">
+        <is>
+          <t>25 August 2022</t>
+        </is>
+      </c>
+      <c r="D275" s="4" t="inlineStr">
+        <is>
+          <t>https://market.kz/a/prodam-ili-obmenyayu-cherepah-vodnyih-na-bolshuyu-kletku-dlya-kryisok-108206230/</t>
+        </is>
+      </c>
+      <c r="E275" s="4" t="inlineStr">
+        <is>
+          <t>Продам или обменяю черепах водных на большую клетку для крысок</t>
+        </is>
+      </c>
+    </row>
+    <row r="276" ht="40" customHeight="1">
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D276" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhaya-cherepaha-IDmRKK0.html</t>
+        </is>
+      </c>
+      <c r="E276" s="4" t="inlineStr">
+        <is>
+          <t>Продам красноухую черепаху, 14лет. Возможно вместе с аквариумом. Цена черепахи 15000т. Аквариум 15000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277" ht="40" customHeight="1">
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D277" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/krasnouhie-cherepahi-IDmRDLC.html</t>
+        </is>
+      </c>
+      <c r="E277" s="4" t="inlineStr">
+        <is>
+          <t>Продам две здоровые красноухие черепахи, вместе с аквариумом на 90 литров и всеми аксессуарами. Самовывоз.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278" ht="40" customHeight="1">
+      <c r="A278" s="3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B278" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C278" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D278" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/ultrafioletovaya-lampa-dlya-reptiliy-IDmRKB1.html</t>
+        </is>
+      </c>
+      <c r="E278" s="4" t="inlineStr">
+        <is>
+          <t>Продам ультрафиолетовую лампу 10уф 
+Брали для черепахи, к сожалению не нашли цоколь для такой большой лампы 
+Размер в длину 75см 25В</t>
+        </is>
+      </c>
+    </row>
+    <row r="279" ht="40" customHeight="1">
+      <c r="A279" s="3" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D279" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/igrushka-cherepaha-muzykalnaya-svetyaschayasya-i-otkladyvaet-yaytsa-IDjo50w.html</t>
+        </is>
+      </c>
+      <c r="E279" s="4" t="inlineStr">
+        <is>
+          <t>Продам игрушку черепахи.
+Музыквльная, светится и откладывает яйца.
+Времяпровождение в компании с забавными зверюшками подарит улыбку и весёлое настроение Вашему малышу. Малышам так нравятся милые, маленькие и смешные зверюшки, которые смотрят на мир своими забавными, огромными глазами. Игра со зверятами развивает у детей фантазию, мелкую моторику, учит ответственности и заботе о братьях наших меньших.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280" ht="40" customHeight="1">
+      <c r="A280" s="3" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="B280" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C280" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D280" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/vodyanye-krasnouhie-cherepahi-v-horoshie-ruki-s-dostavkoy-IDmJa0j.html</t>
+        </is>
+      </c>
+      <c r="E280" s="4" t="inlineStr">
+        <is>
+          <t>Продам красноухих черепах по 5тыс каждая в хорошие руки
+С доставкой
+По желанию
+Контейнера по 3тыс,башни по 2тыс,корм по 200-500тг
+Милые спокойные,интересные</t>
+        </is>
+      </c>
+    </row>
+    <row r="281" ht="40" customHeight="1">
+      <c r="A281" s="3" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="B281" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C281" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D281" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/akvarium-s-podsvetkoy-srochno-IDmI5Mh.html</t>
+        </is>
+      </c>
+      <c r="E281" s="4" t="inlineStr">
+        <is>
+          <t>Продам аквариум. Бу. Ширина 60 см*30 см, высота 30 см. Есть трещина, которую заклеили. Пользоваться можно. Подсветка работает. Цена 4000, самовывоз Сарыарка Сейфуллина. В нём были достаточно крупные  красноухие черепахи. Аквариум не протекает.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282" ht="40" customHeight="1">
+      <c r="A282" s="3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="B282" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C282" s="3" t="inlineStr">
+        <is>
+          <t>26 August 2022</t>
+        </is>
+      </c>
+      <c r="D282" s="4" t="inlineStr">
+        <is>
+          <t>https://market.kz/a/cherepaha-108214054/</t>
+        </is>
+      </c>
+      <c r="E282" s="4" t="inlineStr">
+        <is>
+          <t>черепаха</t>
+        </is>
+      </c>
+    </row>
+    <row r="283" ht="40" customHeight="1">
+      <c r="A283" s="3" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B283" s="3" t="inlineStr">
+        <is>
+          <t>среднеазиатская черепаха</t>
+        </is>
+      </c>
+      <c r="C283" s="3" t="inlineStr">
+        <is>
+          <t>27 August 2022</t>
+        </is>
+      </c>
+      <c r="D283" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-suhoputnuyu-cherepahu-samets-IDmRRIT.html</t>
+        </is>
+      </c>
+      <c r="E283" s="4" t="inlineStr">
+        <is>
+          <t>Среднеазиатская черепаха является довольно популярным домашним питомцем. Это сухопутная травоядная черепаха, довольно неприхотливая в содержании и не очень крупная: длина панциря в среднем составляет от 15 до 25 см, причем самцы миниатюрнее самок</t>
+        </is>
+      </c>
+    </row>
+    <row r="284" ht="40" customHeight="1">
+      <c r="A284" s="3" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="B284" s="3" t="inlineStr">
+        <is>
+          <t>продам черепаху</t>
+        </is>
+      </c>
+      <c r="C284" s="3" t="inlineStr">
+        <is>
+          <t>27 August 2022</t>
+        </is>
+      </c>
+      <c r="D284" s="4" t="inlineStr">
+        <is>
+          <t>https://olx.kz/d/obyavlenie/prodam-igrushku-IDmRSdb.html</t>
+        </is>
+      </c>
+      <c r="E284" s="4" t="inlineStr">
+        <is>
+          <t>Продам черепаху с контейнером работает от батареи в хорошем состоянии оригинал покупали в  Марвине просьба писать на ватсап</t>
         </is>
       </c>
     </row>
@@ -7767,6 +8786,42 @@
     <hyperlink ref="D246" r:id="rId245"/>
     <hyperlink ref="D247" r:id="rId246"/>
     <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
